--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 52544-2025</t>
+          <t>A 18959-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45954.55127314815</v>
+        <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -883,23 +883,18 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -913,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -923,136 +918,141 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Brunpudrad nållav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 18959-2021 artfynd.xlsx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 18959-2021 karta.png", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 18959-2021 FSC-klagomål.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 18959-2021 FSC-klagomål mail.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 18959-2021 tillsynsbegäran.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 18959-2021 tillsynsbegäran mail.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 52544-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45954.55127314815</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Grönsiska
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52544-2025 artfynd.xlsx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52544-2025 karta.png", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52544-2025 FSC-klagomål.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52544-2025 FSC-klagomål mail.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52544-2025 tillsynsbegäran.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52544-2025 tillsynsbegäran mail.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52544-2025 prioriterade fågelarter.docx", "A 52544-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 18959-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44308</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 18959-2021 artfynd.xlsx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 18959-2021 karta.png", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 18959-2021 FSC-klagomål.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 18959-2021 FSC-klagomål mail.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 18959-2021 tillsynsbegäran.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 18959-2021 tillsynsbegäran mail.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 52540-2025</t>
+          <t>A 56472-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45954.54748842592</v>
+        <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,13 +1064,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1104,212 +1099,217 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 52540-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45954.54748842592</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 37936-2021</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>6.2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 56472-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45625.46011574074</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2431,14 +2431,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41617-2021</t>
+          <t>A 4200-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44425.44458333333</v>
+        <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2450,13 +2450,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2493,14 +2488,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4200-2022</t>
+          <t>A 41617-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44588.60006944444</v>
+        <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2512,8 +2507,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2550,14 +2550,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 59408-2021</t>
+          <t>A 45095-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44491</v>
+        <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,8 +2569,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2607,14 +2612,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45095-2022</t>
+          <t>A 59408-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44842.46762731481</v>
+        <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2626,13 +2631,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,14 +2726,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41619-2021</t>
+          <t>A 68513-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44425.44590277778</v>
+        <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2745,13 +2745,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2788,14 +2783,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 68513-2021</t>
+          <t>A 41619-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44529.46652777777</v>
+        <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2807,8 +2802,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3130,14 +3130,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 27794-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3149,13 +3149,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3192,14 +3187,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 46909-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3212,7 +3207,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3249,14 +3244,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27794-2022</t>
+          <t>A 51006-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44743</v>
+        <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3269,7 +3264,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3306,14 +3301,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46909-2021</t>
+          <t>A 26561-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44446.46452546296</v>
+        <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3326,7 +3321,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3363,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3382,13 +3377,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3425,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45070</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3444,13 +3434,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3487,14 +3472,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51006-2021</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44460.88979166667</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3507,7 +3492,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3544,14 +3529,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45874</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3564,7 +3549,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3601,14 +3586,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 26561-2021</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44348.5505787037</v>
+        <v>45267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3618,6 +3603,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -3665,7 +3655,7 @@
         <v>44743</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3715,14 +3705,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3735,7 +3725,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3772,14 +3762,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3782,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3829,14 +3819,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45322</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3839,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3886,14 +3876,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44300</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3896,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3943,14 +3933,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45267</v>
+        <v>44300</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3962,13 +3952,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4005,14 +3990,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4030,7 +4015,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4067,14 +4052,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45710</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4087,7 +4072,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4124,14 +4109,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45890</v>
+        <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4143,8 +4128,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>7.2</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4181,14 +4171,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>45017</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,8 +4190,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4238,14 +4233,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44867</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4258,7 +4253,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4295,14 +4290,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45364</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4316,11 +4311,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4364,7 +4359,7 @@
         <v>44846.52234953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4414,14 +4409,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45058</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4434,7 +4429,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4471,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4491,7 +4486,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45611</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,13 +4542,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4590,14 +4580,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44314</v>
+        <v>45714.513125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4609,13 +4599,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4652,14 +4637,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45708</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4672,7 +4657,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4709,14 +4694,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45708</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4728,13 +4713,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4771,14 +4751,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45708</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4791,7 +4771,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4828,14 +4808,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4853,7 +4833,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4890,14 +4870,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4915,7 +4895,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4952,14 +4932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4971,8 +4951,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5009,14 +4994,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5029,7 +5014,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5066,14 +5051,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5086,7 +5071,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5123,14 +5108,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45890</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5143,7 +5128,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5180,14 +5165,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45891.404375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5199,13 +5184,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5242,14 +5222,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5267,7 +5247,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5304,14 +5284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5329,7 +5309,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5366,14 +5346,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5386,7 +5366,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5423,14 +5403,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5443,7 +5423,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5480,14 +5460,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>44767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5499,13 +5479,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5542,14 +5517,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5561,8 +5536,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5599,14 +5579,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5619,7 +5599,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5656,14 +5636,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5675,8 +5655,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5713,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5738,7 +5723,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5775,14 +5760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5795,7 +5780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5832,14 +5817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>44865</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5889,14 +5874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5909,7 +5894,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5946,14 +5931,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5965,13 +5950,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6008,14 +5988,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6028,7 +6008,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6065,14 +6045,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6085,7 +6065,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6122,14 +6102,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6141,8 +6121,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6179,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6198,8 +6183,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6236,14 +6226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6256,7 +6246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6293,14 +6283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6313,7 +6303,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6350,14 +6340,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6369,8 +6359,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6407,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6426,8 +6421,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45587</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6483,8 +6483,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6526,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>44587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6541,7 +6546,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6603,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6640,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6655,7 +6660,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6692,14 +6697,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6712,7 +6717,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6754,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6769,7 +6774,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6806,14 +6811,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6825,13 +6830,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6868,14 +6868,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6925,14 +6925,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6982,14 +6982,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7039,14 +7039,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7058,13 +7058,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7101,14 +7096,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7121,7 +7116,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>7.4</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7158,14 +7153,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45758</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7177,13 +7172,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7220,14 +7210,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7240,7 +7230,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7277,14 +7267,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7296,8 +7286,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7334,14 +7329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7354,7 +7349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>9.699999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7391,14 +7386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45775</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7410,13 +7405,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7443,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45775</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,13 +7462,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7515,14 +7500,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,8 +7519,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7572,14 +7562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7592,7 +7582,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7629,14 +7619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,13 +7638,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7691,14 +7676,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7710,13 +7695,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7753,14 +7733,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7772,13 +7752,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7815,14 +7790,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7835,7 +7810,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7872,14 +7847,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45587</v>
+        <v>45322</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7892,7 +7867,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7929,14 +7904,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45670</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7949,7 +7924,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7986,14 +7961,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8005,8 +7980,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8043,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45758</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8062,8 +8042,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8085,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8105,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8142,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>45775</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8182,7 +8167,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8204,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8244,7 +8229,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8281,14 +8266,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45233</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8343,14 +8328,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45587</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8363,7 +8348,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8400,14 +8385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>44978</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,13 +8404,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8462,14 +8442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8481,13 +8461,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8524,14 +8499,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8544,7 +8519,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8581,14 +8556,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45958</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8601,7 +8576,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8638,14 +8613,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8658,7 +8633,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8695,14 +8670,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8715,7 +8690,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8752,14 +8727,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8771,8 +8746,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8809,14 +8789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8828,8 +8808,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8866,14 +8851,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44865</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8885,8 +8870,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8923,14 +8913,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8940,6 +8930,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -8980,14 +8975,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8999,13 +8994,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9042,14 +9032,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45139</v>
+        <v>45058</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9062,7 +9052,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9099,14 +9089,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9124,7 +9114,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9161,14 +9151,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9180,13 +9170,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9223,14 +9208,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9242,8 +9227,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9280,14 +9270,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9299,8 +9289,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9337,14 +9332,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9356,8 +9351,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9394,14 +9394,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9413,8 +9413,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9451,14 +9456,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9476,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9508,14 +9513,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9528,7 +9533,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9565,14 +9570,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9585,7 +9590,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9622,14 +9627,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9642,7 +9647,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9679,14 +9684,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45874</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9699,7 +9704,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9736,14 +9741,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9755,8 +9760,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9793,14 +9803,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45587</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9813,7 +9823,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9850,14 +9860,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9870,7 +9880,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9907,14 +9917,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9964,14 +9974,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45567</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9983,13 +9993,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10026,14 +10031,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44589</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10046,7 +10051,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10083,14 +10088,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10103,7 +10108,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10140,14 +10145,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10157,6 +10162,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -10197,14 +10207,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>44314</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10216,8 +10226,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10254,14 +10269,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10289,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10311,14 +10326,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45126</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10330,8 +10345,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10368,14 +10388,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10388,7 +10408,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10425,14 +10445,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45670</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10445,7 +10465,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10482,14 +10502,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10501,13 +10521,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10544,14 +10559,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10564,7 +10579,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10601,14 +10616,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10621,7 +10636,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.4</v>
+        <v>7.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10658,14 +10673,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45714.513125</v>
+        <v>44867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10678,7 +10693,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10715,14 +10730,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45587</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10735,7 +10750,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10772,14 +10787,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10791,13 +10806,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10834,14 +10844,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44587</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10854,7 +10864,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10891,14 +10901,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10911,7 +10921,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10948,14 +10958,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10968,7 +10978,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11005,14 +11015,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,8 +11034,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11062,14 +11077,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45215</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11081,8 +11096,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11119,14 +11139,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11139,7 +11159,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11176,14 +11196,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45710</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11195,8 +11215,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11233,14 +11258,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11253,7 +11278,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11290,14 +11315,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11310,7 +11335,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11347,14 +11372,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45058</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11367,7 +11392,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11404,14 +11429,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11424,7 +11449,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11461,14 +11486,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11480,13 +11505,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11523,14 +11543,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11542,8 +11562,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>2.1</v>
+        <v>14.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11580,14 +11605,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11605,7 +11630,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11642,14 +11667,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11661,13 +11686,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>14.7</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11704,14 +11724,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>44468</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11723,13 +11743,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11766,14 +11781,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45202</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11785,8 +11800,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11823,14 +11843,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45215</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11842,13 +11862,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11885,14 +11900,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45202</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11905,7 +11920,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11942,14 +11957,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44708</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11962,7 +11977,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>9.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11999,14 +12014,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12019,7 +12034,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>10.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12056,14 +12071,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12081,7 +12096,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12118,14 +12133,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12138,7 +12153,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12175,14 +12190,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12195,7 +12210,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12232,14 +12247,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,8 +12266,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12289,14 +12309,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12309,7 +12329,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12346,14 +12366,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12366,7 +12386,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12403,14 +12423,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12424,11 +12444,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12465,14 +12485,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45233</v>
+        <v>45097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12482,11 +12502,6 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -12527,14 +12542,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45322</v>
+        <v>44955</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12547,7 +12562,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12584,14 +12599,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12609,7 +12624,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12646,14 +12661,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12665,13 +12680,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12708,14 +12718,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12727,13 +12737,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12770,14 +12775,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12789,13 +12794,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12832,14 +12832,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,8 +12851,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12889,14 +12894,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12908,8 +12913,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12946,14 +12956,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12971,7 +12981,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13008,14 +13018,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44798</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13038,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13065,14 +13075,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>44798</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13085,7 +13095,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13122,14 +13132,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13142,7 +13152,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13179,14 +13189,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45058</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13198,13 +13208,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13241,14 +13246,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13261,7 +13266,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13298,14 +13303,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13318,7 +13323,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13355,14 +13360,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13375,7 +13380,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13412,14 +13417,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44916</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13437,7 +13442,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13474,14 +13479,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44767</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13493,8 +13498,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13531,14 +13541,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13550,8 +13560,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13588,14 +13603,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45097</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13607,8 +13622,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13645,14 +13665,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44468</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13664,8 +13684,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13702,14 +13727,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44955</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13722,7 +13747,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13759,14 +13784,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13779,7 +13804,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13816,14 +13841,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>45126</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13836,7 +13861,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13873,14 +13898,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45016</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13892,8 +13917,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13930,14 +13960,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>45587</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13950,7 +13980,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13987,14 +14017,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14012,7 +14042,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14049,14 +14079,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14069,7 +14099,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14106,14 +14136,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14126,7 +14156,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14163,14 +14193,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14182,8 +14212,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14220,14 +14255,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14240,7 +14275,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14277,14 +14312,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>44589</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14296,13 +14331,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14339,14 +14369,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>44916</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14360,11 +14390,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14401,14 +14431,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14421,7 +14451,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14458,14 +14488,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45017</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14477,13 +14507,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14520,14 +14545,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45017</v>
+        <v>45139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14539,13 +14564,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14582,14 +14602,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14601,13 +14621,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>14.7</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14644,14 +14659,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44978</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14664,7 +14679,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14701,14 +14716,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14722,11 +14737,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14763,14 +14778,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14782,13 +14797,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14825,14 +14835,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45070</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14844,8 +14854,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14882,14 +14897,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14902,7 +14917,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14939,14 +14954,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45567</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14958,8 +14973,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14996,14 +15016,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15015,13 +15035,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15058,14 +15073,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>44708</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15078,7 +15093,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15115,14 +15130,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15135,7 +15150,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15172,14 +15187,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15191,13 +15206,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15234,14 +15244,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15253,13 +15263,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15296,14 +15301,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15313,11 +15318,6 @@
       <c r="E249" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -15358,14 +15358,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,13 +15377,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15420,14 +15415,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15445,7 +15440,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15482,14 +15477,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15507,7 +15502,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15544,14 +15539,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,8 +15558,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15601,14 +15601,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15620,8 +15620,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.7</v>
+        <v>14.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15658,14 +15663,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15677,13 +15682,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15720,14 +15720,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15777,14 +15777,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15796,13 +15796,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15839,14 +15834,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15859,7 +15854,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>21.3</v>
+        <v>0.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15896,14 +15891,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45611</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15911,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15953,14 +15948,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15968,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16010,14 +16005,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16031,11 +16026,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16072,14 +16067,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16091,8 +16086,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16129,14 +16129,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45708</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16186,14 +16186,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45708</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16205,8 +16205,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16243,14 +16248,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16268,7 +16273,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16305,14 +16310,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16330,7 +16335,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16367,14 +16372,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16386,8 +16391,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16424,14 +16434,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16449,7 +16459,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16486,14 +16496,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16505,8 +16515,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16543,14 +16558,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16562,13 +16577,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16605,14 +16615,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16630,7 +16640,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16667,14 +16677,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16687,7 +16697,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16724,14 +16734,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16744,7 +16754,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16781,14 +16791,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16800,8 +16810,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16838,14 +16853,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16857,13 +16872,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16900,14 +16910,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16919,13 +16929,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16962,14 +16967,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16983,11 +16988,11 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17024,14 +17029,14 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17043,13 +17048,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>1.4</v>
+        <v>21.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44743</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45459.32884259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44529.46170138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44936.63445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45113.48390046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44300</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45637.7069212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45710</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45017</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44846.52234953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45720.63288194445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45611</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45714.513125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44375.45909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45708</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45708</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45686.73145833334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45804.33686342592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44973.68270833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45891.62295138889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45890</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45891.404375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>45862.48434027778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45862.48601851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45893.72087962963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45037.63707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45862.49270833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44693.50209490741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45777.32631944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45775.55267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45820.47526620371</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44865</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45401.32819444445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45825.48642361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45772.40309027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45107.48325231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45777.32086805555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45761.69005787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45912.58181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>45726.46789351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45777.32327546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44830.35543981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45777.32241898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45831.61278935185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45918.51385416667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>44910.63780092593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45918.50550925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45831.34858796297</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45831.35900462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45036.43976851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45436.32832175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45281.5508449074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45013.53026620371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44550.48967592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45111.48731481482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45679.49787037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45225.51216435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45926.45581018519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45931.59833333334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45839.36814814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45219.41258101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45931.59982638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45625.45383101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45934.87306712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45934.89519675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45322</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45670</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45670.39853009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45758</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45938.54045138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>45775</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45233</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45219.40690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44978</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44896.66025462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45625.46210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>45288.54592592592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45950.62329861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45952.60922453704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45862.48116898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45862.5112037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45862.48950231481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45757.77708333333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45952.60530092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45058</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45954.54431712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45756.42564814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45954.53825231481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45954.53956018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45954.55186342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>45954.54306712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44741.58899305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45594.66606481482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45958.44938657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45874</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45371.73100694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45587</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45671.63806712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45671.64002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>45219.38962962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45960.35961805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>45960.41381944445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44918.41686342593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44314</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45741.70509259259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45761.68358796297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45883.46482638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>45684.69141203703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>45883.45405092592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>45322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>45938.53597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>45587</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>45747.8646875</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44349.5987962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45327.54628472222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45327.51895833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45215</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45551.50974537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45954.54627314815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45036.50671296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>46030.60766203704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>46030.60380787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45173.41140046297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45729.38393518519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45761.67469907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45761.69201388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>45427.55083333333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44468</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45637.70924768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45756.42202546296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45202</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45520.62033564815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44403.67659722222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45775.47883101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>46044.90097222223</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>46002.42930555555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>46002.43211805556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45699.28684027777</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>46044.89229166666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45477.73711805556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44955</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>46008.55391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45741.70359953704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45493.63009259259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45456.73114583334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45282.50063657408</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45757.77603009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44830.34797453704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45161.55212962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44798</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44369.35200231482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45058</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45737.41412037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45474.35745370371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45253.43135416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44586.61754629629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45761.68552083334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45761.68600694444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45761.69388888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45299.74146990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44307.41773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45667.28696759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45126</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45579.50758101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>45587</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>44509.69895833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45772.40685185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44818.62685185186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45376.38177083333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45398.68222222223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44589</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44916</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45755.30775462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45320.86557870371</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45063.56233796296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44664.45688657407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>45775.55607638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44814.81546296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45070</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44893.46648148148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45567</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45757.35355324074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44708</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45540.60707175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44741.41038194444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45567.70056712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44818.32547453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45772.65694444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45775.48229166667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45775.48774305556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45761.68496527777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45761.67996527778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44643.59888888889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45223.62657407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44536.47980324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44536.48008101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45610.56901620371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45677.47734953704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44916.62188657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44916.63834490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45035.58962962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45777.3215625</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45776.44914351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45777.32519675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45777.32569444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45777.32798611111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45777.35261574074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45607.69770833333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45777.32888888889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45560.5765625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45646.46565972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45784.59821759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45784.5059837963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45544.54753472222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45688.45554398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45484.54526620371</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44743</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>45459.32884259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44529.46170138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44936.63445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45113.48390046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44300</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45637.7069212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45710</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45017</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44846.52234953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45720.63288194445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45016</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45611</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>45714.513125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44375.45909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>45708</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>45708</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45686.73145833334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45804.33686342592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>44973.68270833333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45891.62295138889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>45890</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45891.404375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>45862.48434027778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45862.48601851852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45893.72087962963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45037.63707175926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44767</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45862.49270833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>44693.50209490741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45777.32631944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>45775.55267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>45820.47526620371</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44865</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>45401.32819444445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>45825.48642361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>45772.40309027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45107.48325231481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45777.32086805555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
         <v>45761.69005787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45912.58181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>45726.46789351852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45777.32327546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44830.35543981481</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45777.32241898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>45831.61278935185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>45918.51385416667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>44910.63780092593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45918.50550925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45831.34858796297</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45831.35900462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45036.43976851852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45436.32832175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>45281.5508449074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45013.53026620371</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>44550.48967592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>45111.48731481482</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>45679.49787037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45225.51216435185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45926.45581018519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45931.59833333334</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45839.36814814815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45219.41258101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45931.59982638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45625.45383101852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45934.87306712963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45934.89519675926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45322</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45670</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45670.39853009259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45758</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>45938.54045138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>45775</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45233</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45219.40690972222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44978</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44896.66025462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45625.46210648148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>45288.54592592592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>45950.62329861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45952.60922453704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45862.48116898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45862.5112037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45862.48950231481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45757.77708333333</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45952.60530092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45058</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45954.54431712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>45756.42564814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>45954.53825231481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45954.53956018519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45954.55186342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>45954.54306712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>44741.58899305556</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>45594.66606481482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>45958.44938657407</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>45958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>45874</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>45371.73100694444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>45587</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>45671.63806712963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45671.64002314815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>45219.38962962963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45960.35961805555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>45960.41381944445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>44918.41686342593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44314</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45741.70509259259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45761.68358796297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>45883.46482638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>45684.69141203703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>45883.45405092592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>45322</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>45938.53597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>45587</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>45747.8646875</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44349.5987962963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45327.54628472222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45327.51895833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>45215</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>45551.50974537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>45954.54627314815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>45036.50671296296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>46030.60766203704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>46030.60380787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>45173.41140046297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         <v>45729.38393518519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         <v>45761.67469907407</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11612,7 +11612,7 @@
         <v>45761.69201388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>45427.55083333333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44468</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>45637.70924768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45756.42202546296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45202</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45520.62033564815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         <v>44403.67659722222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45775.47883101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>46044.90097222223</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>46002.42930555555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>46002.43211805556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45699.28684027777</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>46044.89229166666</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45477.73711805556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>45097</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>44955</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>46008.55391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12668,7 +12668,7 @@
         <v>45741.70359953704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12725,7 +12725,7 @@
         <v>45493.63009259259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>45456.73114583334</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45282.50063657408</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45757.77603009259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44830.34797453704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45161.55212962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44798</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44369.35200231482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45058</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45737.41412037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45474.35745370371</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45253.43135416666</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44586.61754629629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45761.68552083334</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45761.68600694444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13610,7 +13610,7 @@
         <v>45761.69388888889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>45299.74146990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>44307.41773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>45667.28696759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>45126</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>45579.50758101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>45587</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>44509.69895833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45772.40685185185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>44818.62685185186</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45376.38177083333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45398.68222222223</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44589</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44916</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45755.30775462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>45320.86557870371</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45139</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>45063.56233796296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44664.45688657407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>45775.55607638889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44814.81546296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45070</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44893.46648148148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>45567</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45757.35355324074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44708</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45540.60707175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44741.41038194444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>45567.70056712963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44818.32547453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>45772.65694444445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>45775.48229166667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45775.48774305556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45761.68496527777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45761.67996527778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44643.59888888889</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45223.62657407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44536.47980324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44536.48008101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45610.56901620371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45677.47734953704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44916.62188657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44916.63834490741</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45035.58962962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45777.3215625</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45776.44914351852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45777.32519675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45777.32569444444</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45777.32798611111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45777.35261574074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45607.69770833333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>45777.32888888889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45560.5765625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>45646.46565972222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>45784.59821759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45784.5059837963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45544.54753472222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45688.45554398148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45484.54526620371</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56472-2024</t>
+          <t>A 52540-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45625.46011574074</v>
+        <v>45954.54748842592</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,8 +1064,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1099,217 +1104,212 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 37936-2021</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44403</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 56472-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45625.46011574074</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 52540-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45954.54748842592</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 37936-2021</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44403</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,14 +2726,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 68513-2021</t>
+          <t>A 41619-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44529.46652777777</v>
+        <v>44425.44590277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2745,8 +2745,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2783,14 +2788,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41619-2021</t>
+          <t>A 68513-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44425.44590277778</v>
+        <v>44529.46652777777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2802,13 +2807,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>44300</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>45267</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3491,8 +3491,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3529,14 +3534,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3554,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3586,14 +3591,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45267</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3616,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3648,14 +3653,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44743</v>
+        <v>44314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3667,8 +3672,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3705,14 +3715,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3725,7 +3735,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3762,14 +3772,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3782,7 +3792,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3819,14 +3829,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3838,8 +3848,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3876,14 +3891,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3896,7 +3911,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3933,14 +3948,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44300</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3953,7 +3968,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3990,14 +4005,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4009,13 +4024,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4052,14 +4062,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45710</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4072,7 +4082,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4109,14 +4119,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45017</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4128,13 +4138,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4171,14 +4176,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45017</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4190,13 +4195,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4233,14 +4233,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4290,14 +4290,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4309,13 +4309,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4352,14 +4347,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4372,7 +4367,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4409,14 +4404,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4428,8 +4423,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45016</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>7.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45611</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4580,14 +4580,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4637,14 +4637,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4694,14 +4694,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45708</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4713,8 +4713,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4751,14 +4756,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45708</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4771,7 +4776,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4808,14 +4813,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,13 +4832,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4870,14 +4870,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45364</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4953,11 +4953,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4994,14 +4994,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,8 +5013,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5051,14 +5056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5076,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5108,14 +5113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45890</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5128,7 +5133,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5165,14 +5170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5190,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5222,14 +5227,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5252,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5284,14 +5289,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5314,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5346,14 +5351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5366,7 +5371,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5403,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5460,14 +5465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44767</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5480,7 +5485,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5517,14 +5522,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5536,13 +5541,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5579,14 +5579,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45587</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5636,14 +5636,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5655,13 +5655,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5693,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45890</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5717,13 +5712,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5760,14 +5750,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5780,7 +5770,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5817,14 +5807,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44865</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5836,8 +5826,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5874,14 +5869,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5893,8 +5888,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5931,14 +5931,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5988,14 +5988,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6007,8 +6007,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6045,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45891.404375</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6065,7 +6070,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6102,14 +6107,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6121,13 +6126,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6164,14 +6164,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6183,13 +6183,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6226,14 +6221,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6245,8 +6240,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6283,14 +6283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6302,8 +6302,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6340,14 +6345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6359,13 +6364,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6483,13 +6483,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6526,14 +6521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44587</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6541,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6583,14 +6578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6640,14 +6635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6655,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6697,14 +6692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6712,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6754,14 +6749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6773,8 +6768,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6811,14 +6811,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6830,8 +6830,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6868,14 +6873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6887,8 +6892,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6925,14 +6935,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6955,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6982,14 +6992,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7002,7 +7012,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7039,14 +7049,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7058,8 +7068,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7096,14 +7111,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7116,7 +7131,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7153,14 +7168,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7173,7 +7188,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7210,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45874</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7230,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7267,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7286,13 +7301,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7329,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7359,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7386,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7406,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7443,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7463,7 +7473,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>10.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7500,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45364</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7521,11 +7531,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7562,14 +7572,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45714.513125</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7582,7 +7592,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7619,14 +7629,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7638,8 +7648,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7676,14 +7691,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7696,7 +7711,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7733,14 +7748,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7753,7 +7768,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7790,14 +7805,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7810,7 +7825,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7847,14 +7862,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45322</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7867,7 +7882,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7904,14 +7919,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45670</v>
+        <v>45710</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7924,7 +7939,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7961,14 +7976,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7980,13 +7995,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8033,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45758</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8042,13 +8052,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8085,14 +8090,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8105,7 +8110,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8142,14 +8147,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45775</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8167,7 +8172,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8204,14 +8209,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45775</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8229,7 +8234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8266,14 +8271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45233</v>
+        <v>45070</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8287,11 +8292,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8328,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8348,7 +8353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8385,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44978</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8405,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8442,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8462,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8499,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45758</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8518,8 +8523,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8556,14 +8566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8586,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8613,14 +8623,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45775</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,8 +8642,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8670,14 +8685,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45775</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8689,8 +8704,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8727,14 +8747,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8746,13 +8766,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8789,14 +8804,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8814,7 +8829,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8851,14 +8866,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8870,13 +8885,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8913,14 +8923,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>44867</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8932,13 +8942,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8975,14 +8980,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8995,7 +9000,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9032,14 +9037,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45058</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9052,7 +9057,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9089,14 +9094,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>45058</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9108,13 +9113,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9151,14 +9151,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9208,14 +9208,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9227,13 +9227,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9270,14 +9265,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9287,11 +9282,6 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -9332,14 +9322,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9357,7 +9347,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9394,14 +9384,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9409,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9456,14 +9446,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9466,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9513,14 +9503,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9532,8 +9522,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9570,14 +9565,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9589,8 +9584,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9627,14 +9627,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45958</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9646,8 +9646,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9684,14 +9689,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45874</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9703,8 +9708,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9741,14 +9751,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9766,7 +9776,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9803,14 +9813,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45587</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,8 +9832,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9860,14 +9875,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9880,7 +9895,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9917,14 +9932,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45958</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9937,7 +9952,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9974,14 +9989,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9994,7 +10009,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10031,14 +10046,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10066,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10088,14 +10103,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10123,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10145,14 +10160,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45587</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10164,13 +10179,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10207,14 +10217,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44314</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,13 +10236,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10269,14 +10274,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>44865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10294,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10326,14 +10331,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10351,7 +10356,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10388,14 +10393,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45139</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10408,7 +10413,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10445,14 +10450,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10465,7 +10470,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10502,14 +10507,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10522,7 +10527,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10559,14 +10564,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45322</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10584,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10616,14 +10621,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10636,7 +10641,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10673,14 +10678,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44867</v>
+        <v>45567</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10692,8 +10697,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10730,14 +10740,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45587</v>
+        <v>44589</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10750,7 +10760,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10787,14 +10797,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45708</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10807,7 +10817,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10844,14 +10854,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10864,7 +10874,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10901,14 +10911,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45126</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10921,7 +10931,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10958,14 +10968,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10977,8 +10987,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11015,14 +11030,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11034,13 +11049,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11077,14 +11087,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45215</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11096,13 +11106,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11139,14 +11144,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45670</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11164,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11196,14 +11201,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11221,7 +11226,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11258,14 +11263,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11283,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11315,14 +11320,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11372,14 +11377,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11392,7 +11397,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11429,14 +11434,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11454,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11486,14 +11491,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11506,7 +11511,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11543,14 +11548,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,13 +11567,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>14.7</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11605,14 +11605,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11624,13 +11624,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11667,14 +11662,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11682,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11724,14 +11719,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44468</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11744,7 +11739,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11781,14 +11776,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11800,13 +11795,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11843,14 +11833,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45058</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11863,7 +11853,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11900,14 +11890,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45202</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11910,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11957,14 +11947,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11976,8 +11966,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12014,14 +12009,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12034,7 +12029,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>10.9</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12071,14 +12066,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12096,7 +12091,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12133,14 +12128,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12152,8 +12147,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>14.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12190,14 +12190,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12209,8 +12209,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12247,14 +12252,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45202</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12266,13 +12271,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12309,14 +12309,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45215</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,8 +12328,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12366,14 +12371,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12386,7 +12391,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12423,14 +12428,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12448,7 +12453,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12485,14 +12490,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45097</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12505,7 +12510,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12542,14 +12547,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44955</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12562,7 +12567,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12599,14 +12604,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>44708</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,13 +12623,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12661,14 +12661,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12718,14 +12718,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12775,14 +12775,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,8 +12794,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12832,14 +12837,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12851,13 +12856,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12894,14 +12894,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,13 +12913,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12956,14 +12951,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12975,13 +12970,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13018,14 +13008,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13038,7 +13028,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13075,14 +13065,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44798</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13092,6 +13082,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -13132,14 +13127,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13152,7 +13147,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13189,14 +13184,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45058</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13208,8 +13203,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13246,14 +13246,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45233</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13265,8 +13265,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13303,14 +13308,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45322</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13323,7 +13328,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13360,14 +13365,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13379,8 +13384,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13417,14 +13427,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13438,11 +13448,11 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13479,14 +13489,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13504,7 +13514,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13541,14 +13551,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13566,7 +13576,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13603,14 +13613,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13622,13 +13632,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13665,14 +13670,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13684,13 +13689,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13727,14 +13727,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,8 +13746,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13784,14 +13789,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>44798</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13804,7 +13809,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13841,14 +13846,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45126</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13861,7 +13866,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13898,14 +13903,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13917,13 +13922,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13960,14 +13960,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45587</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13979,8 +13979,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14017,14 +14022,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14036,13 +14041,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14079,14 +14079,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14136,14 +14136,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14193,14 +14193,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>44916</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14255,14 +14255,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>44767</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14312,14 +14312,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44589</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14369,14 +14369,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44916</v>
+        <v>45097</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14388,13 +14388,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14431,14 +14426,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>44468</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14451,7 +14446,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14488,14 +14483,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>44955</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14508,7 +14503,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14545,14 +14540,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45139</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14565,7 +14560,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14609,7 +14604,7 @@
         <v>45063.56233796296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14659,14 +14654,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45016</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14679,7 +14674,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14716,14 +14711,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14735,13 +14730,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14778,14 +14768,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,8 +14787,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14835,14 +14830,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45070</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14854,13 +14849,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14897,14 +14887,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14907,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14954,14 +14944,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45567</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14973,13 +14963,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15016,14 +15001,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15036,7 +15021,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15073,14 +15058,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44708</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15092,8 +15077,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>9.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15130,14 +15120,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15149,8 +15139,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15187,14 +15182,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15207,7 +15202,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15244,14 +15239,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45017</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15263,8 +15258,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15301,14 +15301,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>45017</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15320,8 +15320,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15358,14 +15363,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15377,8 +15382,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>2.9</v>
+        <v>14.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15415,14 +15425,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>44978</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15432,11 +15442,6 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G251" t="n">
@@ -15477,14 +15482,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15498,11 +15503,11 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15539,14 +15544,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15560,11 +15565,11 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15601,14 +15606,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15620,13 +15625,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>14.7</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15663,14 +15663,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15720,14 +15720,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15777,14 +15777,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15794,6 +15794,11 @@
       <c r="E257" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -15834,14 +15839,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15854,7 +15859,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15891,14 +15896,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15911,7 +15916,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15948,14 +15953,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15965,6 +15970,11 @@
       <c r="E260" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -16005,14 +16015,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16026,11 +16036,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16067,14 +16077,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16088,11 +16098,11 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16129,14 +16139,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16148,8 +16158,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16186,14 +16201,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16211,7 +16226,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16248,14 +16263,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16273,7 +16288,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16310,14 +16325,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16329,13 +16344,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16372,14 +16382,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16391,13 +16401,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16434,14 +16439,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16455,11 +16460,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16496,14 +16501,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16515,13 +16520,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16558,14 +16558,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16577,8 +16577,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16615,14 +16620,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16634,13 +16639,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>21.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16677,14 +16677,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45611</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16734,14 +16734,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16791,14 +16791,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16812,11 +16812,11 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16853,14 +16853,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16910,14 +16910,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45708</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16967,14 +16967,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45708</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16986,13 +16986,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17029,14 +17024,14 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17048,8 +17043,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>21.3</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 52540-2025</t>
+          <t>A 56472-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45954.54748842592</v>
+        <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,13 +1064,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1104,223 +1099,228 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 52540-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45954.54748842592</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 37936-2021</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>6.2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 56472-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45625.46011574074</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 44576-2022</t>
+          <t>A 18630-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44840.49480324074</v>
+        <v>44306</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18630-2021</t>
+          <t>A 44576-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44306</v>
+        <v>44840.49480324074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2902,14 +2902,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 26569-2021</t>
+          <t>A 63330-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44348</v>
+        <v>44508.46548611111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2959,14 +2959,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63330-2021</t>
+          <t>A 26569-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44508.46548611111</v>
+        <v>44348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45322</v>
+        <v>45891.404375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44300</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3434,8 +3434,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3472,14 +3477,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45267</v>
+        <v>45708</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3491,13 +3496,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3534,14 +3534,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44743</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3553,8 +3553,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3591,14 +3596,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3610,13 +3615,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>7.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3653,14 +3653,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44314</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3672,13 +3672,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3715,14 +3710,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45267</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3734,8 +3729,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3772,14 +3772,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>44743</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3829,14 +3829,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3848,13 +3848,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3891,14 +3886,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3911,7 +3906,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3948,14 +3943,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3968,7 +3963,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4005,14 +4000,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4025,7 +4020,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4062,14 +4057,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4082,7 +4077,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4119,14 +4114,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4139,7 +4134,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4176,14 +4171,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4196,7 +4191,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4233,14 +4228,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4248,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4290,14 +4285,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4310,7 +4305,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4347,14 +4342,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4366,8 +4361,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4404,14 +4404,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,8 +4485,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4523,14 +4528,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4543,7 +4548,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45364</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4599,8 +4604,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4637,14 +4647,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>44300</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4657,7 +4667,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4694,14 +4704,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4719,7 +4729,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4756,14 +4766,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,8 +4785,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>14.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4813,14 +4828,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4832,8 +4847,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4870,14 +4890,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,13 +4909,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4932,14 +4947,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,13 +4966,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4994,14 +5004,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,13 +5023,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5056,14 +5061,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5081,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5113,14 +5118,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5138,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5170,14 +5175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45587</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5195,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5227,14 +5232,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45890</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5246,13 +5251,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5289,14 +5289,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5308,13 +5308,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5351,14 +5346,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5370,8 +5365,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,8 +5427,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5465,14 +5470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45017</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5484,8 +5489,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5522,14 +5532,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45017</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5541,8 +5551,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5579,14 +5594,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45587</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5614,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5636,14 +5651,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45710</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5671,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5693,14 +5708,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45890</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,8 +5727,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5750,14 +5770,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5769,8 +5789,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5807,14 +5832,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5826,13 +5851,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5869,14 +5889,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5894,7 +5914,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5931,14 +5951,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5950,8 +5970,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5988,14 +6013,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6050,14 +6075,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6069,8 +6094,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6107,14 +6137,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6127,7 +6157,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6164,14 +6194,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6183,8 +6213,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6221,14 +6256,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6240,13 +6275,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6283,14 +6313,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6308,7 +6338,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6345,14 +6375,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6395,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6432,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6421,13 +6451,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6489,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6483,8 +6508,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6551,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6540,8 +6570,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6613,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6633,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6670,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6655,7 +6690,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6692,14 +6727,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6711,8 +6746,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6749,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6768,13 +6808,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>21.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6811,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6830,13 +6865,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6873,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6892,13 +6922,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6935,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45016</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6955,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6992,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45714.513125</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7012,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7074,7 +7099,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7111,14 +7136,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7131,7 +7156,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7168,14 +7193,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7188,7 +7213,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7225,14 +7250,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45874</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7245,7 +7270,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7282,14 +7307,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7339,14 +7364,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45611</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7359,7 +7384,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7396,14 +7421,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7416,7 +7441,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7478,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>45708</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7473,7 +7498,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.9</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7510,14 +7535,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45364</v>
+        <v>45708</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7529,13 +7554,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7572,14 +7592,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7591,8 +7611,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7629,14 +7654,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,13 +7673,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7691,14 +7711,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45708</v>
+        <v>44767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7711,7 +7731,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7748,14 +7768,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7768,7 +7788,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7805,14 +7825,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>44865</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7825,7 +7845,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7862,14 +7882,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7882,7 +7902,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7919,14 +7939,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45710</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7939,7 +7959,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7976,14 +7996,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,8 +8015,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8033,14 +8058,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8052,8 +8077,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8090,14 +8120,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8110,7 +8140,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8147,14 +8177,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,13 +8196,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8209,14 +8234,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8234,7 +8259,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8271,14 +8296,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45070</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8290,13 +8315,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8333,14 +8353,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8350,6 +8370,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -8390,14 +8415,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>44587</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8435,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8472,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8492,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8529,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45758</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8523,13 +8548,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8566,14 +8586,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8585,8 +8605,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8648,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45775</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8648,7 +8673,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8685,14 +8710,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45775</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8704,13 +8729,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8747,14 +8767,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8767,7 +8787,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8804,14 +8824,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,13 +8843,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8866,14 +8881,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8886,7 +8901,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8923,14 +8938,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44867</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8943,7 +8958,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8980,14 +8995,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9000,7 +9015,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9037,14 +9052,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9057,7 +9072,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9094,14 +9109,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45058</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9114,7 +9129,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9151,14 +9166,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9171,7 +9186,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9208,14 +9223,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9228,7 +9243,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9265,14 +9280,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9285,7 +9300,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9322,14 +9337,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9347,7 +9362,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9384,14 +9399,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9405,11 +9420,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9446,14 +9461,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9466,7 +9481,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9503,14 +9518,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9522,13 +9537,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9565,14 +9575,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9584,13 +9594,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9627,14 +9632,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9646,13 +9651,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9689,14 +9689,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,13 +9708,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9751,14 +9746,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>45758</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9776,7 +9771,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9813,14 +9808,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45322</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9832,13 +9827,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9875,14 +9865,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45670</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9895,7 +9885,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9932,14 +9922,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45958</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9951,8 +9941,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9989,14 +9984,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10009,7 +10004,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10046,14 +10041,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45775</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10065,8 +10060,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10103,14 +10103,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10122,8 +10122,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10160,14 +10165,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45587</v>
+        <v>45233</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10179,8 +10184,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10217,14 +10227,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10237,7 +10247,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.4</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10274,14 +10284,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44865</v>
+        <v>44978</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10294,7 +10304,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10331,14 +10341,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10356,7 +10366,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10393,14 +10403,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45139</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10412,8 +10422,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10450,14 +10465,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10469,8 +10484,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10507,14 +10527,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10527,7 +10547,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10564,14 +10584,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10584,7 +10604,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10628,7 +10648,7 @@
         <v>45288.54592592592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10678,14 +10698,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45567</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10703,7 +10723,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10740,14 +10760,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44589</v>
+        <v>45058</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10760,7 +10780,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10797,14 +10817,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45874</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10854,14 +10874,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10874,7 +10894,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10911,14 +10931,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45126</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10931,7 +10951,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10968,14 +10988,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10987,13 +11007,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11030,14 +11045,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11050,7 +11065,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11087,14 +11102,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11106,8 +11121,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11144,14 +11164,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45670</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11164,7 +11184,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11201,14 +11221,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>45587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11220,13 +11240,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11263,14 +11278,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11283,7 +11298,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11320,14 +11335,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11340,7 +11355,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11377,14 +11392,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11397,7 +11412,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11434,14 +11449,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11454,7 +11469,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11491,14 +11506,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44587</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11526,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11548,14 +11563,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11567,8 +11582,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11605,14 +11625,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11645,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11662,14 +11682,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>44314</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11681,8 +11701,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11719,14 +11744,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11764,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11776,14 +11801,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11795,8 +11820,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11833,14 +11863,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45058</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11852,8 +11882,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11890,14 +11925,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11909,8 +11944,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11947,14 +11987,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11972,7 +12012,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12009,14 +12049,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12029,7 +12069,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12066,14 +12106,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12091,7 +12131,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12128,14 +12168,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12153,7 +12193,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>14.7</v>
+        <v>2.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12190,14 +12230,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>45322</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12209,13 +12249,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12252,14 +12287,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45202</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12307,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12309,14 +12344,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45215</v>
+        <v>45958</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,13 +12363,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12371,14 +12401,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>44867</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12421,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>6.2</v>
+        <v>1.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12428,14 +12458,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,13 +12477,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12490,14 +12515,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12535,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>9.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12547,14 +12572,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12567,7 +12592,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12604,14 +12629,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44708</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12624,7 +12649,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>9.699999999999999</v>
+        <v>4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12661,14 +12686,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12681,7 +12706,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12718,14 +12743,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12738,7 +12763,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12775,14 +12800,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12794,13 +12819,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12837,14 +12857,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12856,8 +12876,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12894,14 +12919,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>45215</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,8 +12938,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12951,14 +12981,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12971,7 +13001,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13008,14 +13038,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13028,7 +13058,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13065,14 +13095,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13084,13 +13114,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13127,14 +13152,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13146,8 +13171,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13184,14 +13214,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13203,13 +13233,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13246,14 +13271,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45233</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13265,13 +13290,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13308,14 +13328,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45322</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13328,7 +13348,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13365,14 +13385,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13390,7 +13410,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>6.1</v>
+        <v>14.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13427,14 +13447,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13452,7 +13472,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13489,14 +13509,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13508,13 +13528,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13551,14 +13566,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>44468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13570,13 +13585,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13613,14 +13623,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13632,8 +13642,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13670,14 +13685,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13690,7 +13705,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13727,14 +13742,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45202</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,13 +13761,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13789,14 +13799,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44798</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13809,7 +13819,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13846,14 +13856,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13866,7 +13876,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4</v>
+        <v>10.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13903,14 +13913,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13922,8 +13932,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13960,14 +13975,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13977,11 +13992,6 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -14022,14 +14032,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14039,6 +14049,11 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -14079,14 +14094,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14114,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14136,14 +14151,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14171,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14193,14 +14208,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44916</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14214,11 +14229,11 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14255,14 +14270,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44767</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14275,7 +14290,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14312,14 +14327,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45097</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14332,7 +14347,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14369,14 +14384,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45097</v>
+        <v>44955</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14389,7 +14404,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14426,14 +14441,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44468</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14446,7 +14461,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14483,14 +14498,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44955</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14503,7 +14518,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14540,14 +14555,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14597,14 +14612,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14616,8 +14631,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14654,14 +14674,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45016</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14673,8 +14693,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14711,14 +14736,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14730,8 +14755,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14768,14 +14798,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14787,13 +14817,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14830,14 +14855,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14849,8 +14874,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14887,14 +14917,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>44798</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14907,7 +14937,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14944,14 +14974,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14964,7 +14994,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15001,14 +15031,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45058</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15021,7 +15051,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15058,14 +15088,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15077,13 +15107,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15120,14 +15145,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15139,13 +15164,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15182,14 +15202,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15222,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15239,14 +15259,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45017</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15260,11 +15280,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15301,14 +15321,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45017</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15346,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.3</v>
+        <v>6.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15363,14 +15383,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15388,7 +15408,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>14.7</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15425,14 +15445,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44978</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15444,8 +15464,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15482,14 +15507,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15503,11 +15528,11 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15544,14 +15569,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15563,13 +15588,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15606,14 +15626,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15646,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15663,14 +15683,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45126</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15703,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15720,14 +15740,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15739,8 +15759,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15777,14 +15802,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45587</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15796,13 +15821,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15839,14 +15859,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15858,8 +15878,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15896,14 +15921,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15916,7 +15941,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15953,14 +15978,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15972,13 +15997,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16015,14 +16035,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16036,11 +16056,11 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16077,14 +16097,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16096,13 +16116,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16139,14 +16154,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>44589</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16158,13 +16173,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16201,14 +16211,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>44916</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16222,11 +16232,11 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16263,14 +16273,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16282,13 +16292,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16325,14 +16330,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16345,7 +16350,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16382,14 +16387,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16402,7 +16407,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16439,14 +16444,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16458,13 +16463,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16501,14 +16501,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16558,14 +16558,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16579,11 +16579,11 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16620,14 +16620,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>21.3</v>
+        <v>0.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16677,14 +16677,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45611</v>
+        <v>45070</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16696,8 +16696,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16734,14 +16739,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16759,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16791,14 +16796,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45567</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16816,7 +16821,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16853,14 +16858,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16873,7 +16878,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16910,14 +16915,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45708</v>
+        <v>44708</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16930,7 +16935,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16967,14 +16972,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45708</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17024,14 +17029,14 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17043,13 +17048,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56472-2024</t>
+          <t>A 37936-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45625.46011574074</v>
+        <v>44403</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1089,238 +1089,238 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56472-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45625.46011574074</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 52540-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45954.54748842592</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 37936-2021</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44403</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18630-2021</t>
+          <t>A 44576-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44306</v>
+        <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 44576-2022</t>
+          <t>A 18630-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44840.49480324074</v>
+        <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,14 +2193,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 64161-2021</t>
+          <t>A 48116-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44510</v>
+        <v>44449.46109953704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32291-2021</t>
+          <t>A 41619-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44371.50600694444</v>
+        <v>44425.44590277778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2312,14 +2312,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 26564-2021</t>
+          <t>A 64161-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44348.55476851852</v>
+        <v>44510</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2369,14 +2369,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41626-2021</t>
+          <t>A 68513-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44425.45453703704</v>
+        <v>44529.46652777777</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,13 +2388,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2431,14 +2426,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 4200-2022</t>
+          <t>A 32291-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44588.60006944444</v>
+        <v>44371.50600694444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2450,8 +2445,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41617-2021</t>
+          <t>A 45095-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44425.44458333333</v>
+        <v>44842.46762731481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2550,14 +2550,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45095-2022</t>
+          <t>A 59408-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44842.46762731481</v>
+        <v>44491</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,13 +2569,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2612,14 +2607,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59408-2021</t>
+          <t>A 19495-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44491</v>
+        <v>44693.49518518519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2632,7 +2627,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2669,14 +2664,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48116-2021</t>
+          <t>A 63330-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44449.46109953704</v>
+        <v>44508.46548611111</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2689,7 +2684,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2726,14 +2721,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41619-2021</t>
+          <t>A 66902-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44425.44590277778</v>
+        <v>44522</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2745,13 +2740,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2788,14 +2778,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 68513-2021</t>
+          <t>A 26564-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44529.46652777777</v>
+        <v>44348.55476851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2808,7 +2798,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2845,14 +2835,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19495-2022</t>
+          <t>A 26569-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44693.49518518519</v>
+        <v>44348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2865,7 +2855,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2902,14 +2892,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63330-2021</t>
+          <t>A 46909-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44508.46548611111</v>
+        <v>44446.46452546296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2922,7 +2912,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2959,14 +2949,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26569-2021</t>
+          <t>A 43255-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44348</v>
+        <v>44432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2979,7 +2969,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3016,14 +3006,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 66902-2021</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44522</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3036,7 +3026,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3073,14 +3063,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43255-2021</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44432</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3093,7 +3083,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3130,14 +3120,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 27794-2022</t>
+          <t>A 51006-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44743</v>
+        <v>44460.88979166667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3150,7 +3140,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3187,14 +3177,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46909-2021</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44446.46452546296</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3207,7 +3197,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3244,14 +3234,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51006-2021</t>
+          <t>A 27794-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44460.88979166667</v>
+        <v>44743</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3254,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3301,14 +3291,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 26561-2021</t>
+          <t>A 41626-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44348.5505787037</v>
+        <v>44425.45453703704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3320,8 +3310,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3358,14 +3353,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 26561-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45891.404375</v>
+        <v>44348.5505787037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3373,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3415,14 +3410,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3434,13 +3429,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3477,14 +3467,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45708</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3487,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3534,14 +3524,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3553,13 +3543,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3596,14 +3581,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45322</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3616,7 +3601,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3653,14 +3638,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>44300</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3673,7 +3658,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3717,7 +3702,7 @@
         <v>45267</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3772,14 +3757,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44743</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3792,7 +3777,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3829,14 +3814,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>45058</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3849,7 +3834,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3886,14 +3871,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3906,7 +3891,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3943,14 +3928,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3963,7 +3948,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4000,14 +3985,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4019,8 +4004,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4057,14 +4047,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4076,8 +4066,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4114,14 +4109,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>44314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4133,8 +4128,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4171,14 +4171,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4228,14 +4228,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 4200-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>44588.60006944444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4285,14 +4285,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4304,8 +4304,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4342,14 +4347,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4361,13 +4366,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4404,14 +4404,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,13 +4485,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,8 +4542,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45364</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,13 +4604,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4647,14 +4642,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44300</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4667,7 +4662,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4704,14 +4699,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4723,13 +4718,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4766,14 +4756,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4787,11 +4777,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.7</v>
+        <v>4.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4828,14 +4818,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45587</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4847,13 +4837,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4890,14 +4875,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 41617-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>44425.44458333333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4909,8 +4894,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4947,14 +4937,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4967,7 +4957,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5004,14 +4994,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5024,7 +5014,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5061,14 +5051,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5081,7 +5071,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5118,14 +5108,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5138,7 +5128,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5175,14 +5165,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>44865</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5195,7 +5185,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5232,14 +5222,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45890</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5242,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5289,14 +5279,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5299,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5346,14 +5336,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5367,11 +5357,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5398,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>45139</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,13 +5417,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5470,14 +5455,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45017</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5489,13 +5474,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5532,14 +5512,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45017</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5551,13 +5531,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5594,14 +5569,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45708</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5614,7 +5589,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5651,14 +5626,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45710</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5670,8 +5645,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5708,14 +5688,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5729,11 +5709,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5770,14 +5750,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5789,13 +5769,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5832,14 +5807,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5852,7 +5827,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5889,14 +5864,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45587</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5908,13 +5883,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5951,14 +5921,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5970,13 +5940,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6013,14 +5978,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6032,13 +5997,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6075,14 +6035,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45587</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6094,13 +6054,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6137,14 +6092,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6156,8 +6111,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6194,14 +6154,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45567</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6219,7 +6179,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6256,14 +6216,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6276,7 +6236,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6313,14 +6273,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>44589</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6332,13 +6292,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6375,14 +6330,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6394,8 +6349,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6432,14 +6392,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6452,7 +6412,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6489,14 +6449,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6508,13 +6468,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6551,14 +6506,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6570,13 +6525,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6613,14 +6563,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6633,7 +6583,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6670,14 +6620,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6689,8 +6639,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6727,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6746,13 +6701,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>45126</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6759,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>21.3</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6796,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6816,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6853,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6873,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6910,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45016</v>
+        <v>45670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6930,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +6967,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7036,8 +6986,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7029,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7099,7 +7054,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7136,14 +7091,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7155,8 +7110,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7193,14 +7153,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7212,8 +7172,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7250,14 +7215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7269,8 +7234,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7307,14 +7277,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7327,7 +7297,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7364,14 +7334,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45611</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7384,7 +7354,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7421,14 +7391,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7441,7 +7411,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7478,14 +7448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45708</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,7 +7468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7535,14 +7505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45708</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7555,7 +7525,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7592,14 +7562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,13 +7581,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7654,14 +7619,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7674,7 +7639,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7711,14 +7676,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44767</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7731,7 +7696,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7768,14 +7733,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>44916</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,8 +7752,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7825,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44865</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7882,14 +7852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7939,14 +7909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>44767</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7959,7 +7929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7996,14 +7966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,13 +7985,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8058,14 +8023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>44587</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8077,13 +8042,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8120,14 +8080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8140,7 +8100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8177,14 +8137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8197,7 +8157,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8234,14 +8194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8253,13 +8213,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8296,14 +8251,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8316,7 +8271,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8353,14 +8308,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8372,13 +8327,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8415,14 +8365,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44587</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8472,14 +8422,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8492,7 +8442,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8529,14 +8479,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8549,7 +8499,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8586,14 +8536,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8605,13 +8555,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8648,14 +8593,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45058</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8667,13 +8612,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8710,14 +8650,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45097</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8730,7 +8670,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8767,14 +8707,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8784,6 +8724,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -8824,14 +8769,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>44468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8844,7 +8789,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8881,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8901,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8938,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>44955</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8995,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9015,7 +8960,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9052,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9072,7 +9017,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9109,14 +9054,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,8 +9073,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9166,14 +9116,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9186,7 +9136,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9223,14 +9173,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9242,8 +9192,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9280,14 +9235,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9299,8 +9254,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>4.3</v>
+        <v>14.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9337,14 +9297,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9362,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9399,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>45202</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9418,13 +9378,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9461,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9481,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9518,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45215</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,8 +9492,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9575,14 +9535,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9595,7 +9555,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9632,14 +9592,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9652,7 +9612,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9689,14 +9649,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,8 +9668,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9746,14 +9711,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45758</v>
+        <v>44708</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,13 +9730,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9808,14 +9768,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45322</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9827,8 +9787,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9865,14 +9830,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45670</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9882,6 +9847,11 @@
       <c r="E156" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -9922,14 +9892,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9941,13 +9911,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9984,14 +9949,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10004,7 +9969,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.1</v>
+        <v>10.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10041,14 +10006,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45775</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10066,7 +10031,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10103,14 +10068,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45775</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10122,13 +10087,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10165,14 +10125,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45233</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10184,13 +10144,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10227,14 +10182,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10247,7 +10202,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10284,14 +10239,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44978</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10341,14 +10296,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10360,13 +10315,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10403,14 +10353,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45714.513125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10422,13 +10372,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10465,14 +10410,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45874</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10484,13 +10429,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10527,14 +10467,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10546,8 +10486,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10584,14 +10529,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10603,8 +10548,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10641,14 +10591,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45233</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10660,8 +10610,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10698,14 +10653,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45322</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10717,13 +10672,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10760,14 +10710,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45058</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10780,7 +10730,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10817,14 +10767,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45874</v>
+        <v>45710</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10837,7 +10787,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10874,14 +10824,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10893,8 +10843,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10931,14 +10886,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,8 +10905,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10988,14 +10948,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11007,8 +10967,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11045,14 +11010,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11065,7 +11030,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11102,14 +11067,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11127,7 +11092,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11164,14 +11129,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11183,8 +11148,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11221,14 +11191,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45587</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11240,8 +11210,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11278,14 +11253,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45070</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11297,8 +11272,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11335,14 +11315,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11355,7 +11335,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11392,14 +11372,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45364</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11411,8 +11391,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11449,14 +11434,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45708</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11469,7 +11454,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11506,14 +11491,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45016</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11526,7 +11511,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11563,14 +11548,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11582,13 +11567,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11625,14 +11605,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11645,7 +11625,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11682,14 +11662,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44314</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11701,13 +11681,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11744,14 +11719,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11764,7 +11739,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11801,14 +11776,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11826,7 +11801,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11863,14 +11838,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>44798</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11882,13 +11857,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11925,14 +11895,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11944,13 +11914,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11987,14 +11952,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12006,13 +11971,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12049,14 +12009,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12068,8 +12028,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12106,14 +12071,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12125,13 +12090,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12168,14 +12128,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12187,13 +12147,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12230,14 +12185,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45322</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12250,7 +12205,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12287,14 +12242,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12306,8 +12261,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12344,14 +12304,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45958</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12364,7 +12324,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12401,14 +12361,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44867</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12420,8 +12380,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12458,14 +12423,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12478,7 +12443,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12515,14 +12480,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45587</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12535,7 +12500,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12572,14 +12537,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45890</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12592,7 +12557,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12629,14 +12594,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12649,7 +12614,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12686,14 +12651,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12706,7 +12671,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12743,14 +12708,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12762,8 +12727,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12800,14 +12770,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12820,7 +12790,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12857,14 +12827,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12878,11 +12848,11 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12919,14 +12889,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45215</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12938,13 +12908,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12981,14 +12946,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45891.404375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13001,7 +12966,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13038,14 +13003,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13058,7 +13023,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13095,14 +13060,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13114,8 +13079,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13152,14 +13122,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13177,7 +13147,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13214,14 +13184,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13234,7 +13204,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13271,14 +13241,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45017</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,8 +13260,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13328,14 +13303,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45017</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,8 +13322,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13385,14 +13365,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13447,14 +13427,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13452,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13509,14 +13489,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>44978</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13509,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13566,14 +13546,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44468</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13585,8 +13565,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13623,14 +13608,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13644,11 +13629,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13685,14 +13670,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13705,7 +13690,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13742,14 +13727,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45202</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13761,8 +13746,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13799,14 +13789,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13819,7 +13809,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13856,14 +13846,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13876,7 +13866,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13913,14 +13903,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13932,13 +13922,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13975,14 +13960,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13995,7 +13980,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14032,14 +14017,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14051,13 +14036,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14094,14 +14074,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14094,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14151,14 +14131,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14170,8 +14150,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14208,14 +14193,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14227,13 +14212,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14270,14 +14250,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14290,7 +14270,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14327,14 +14307,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45097</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14344,6 +14324,11 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -14384,14 +14369,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44955</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14403,8 +14388,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14441,14 +14431,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14460,8 +14450,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14498,14 +14493,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14517,8 +14512,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14555,14 +14555,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14574,8 +14574,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14612,14 +14617,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14637,7 +14642,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14674,14 +14679,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14693,13 +14698,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14736,14 +14736,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14755,13 +14755,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14798,14 +14793,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14818,7 +14813,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14855,14 +14850,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14876,11 +14871,11 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14917,14 +14912,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44798</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14974,14 +14969,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14994,7 +14989,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15031,14 +15026,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45058</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15051,7 +15046,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15088,14 +15083,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15108,7 +15103,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15145,14 +15140,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15165,7 +15160,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15202,14 +15197,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45758</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15221,8 +15216,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15259,14 +15259,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45775</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15280,11 +15280,11 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15321,14 +15321,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45775</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15383,14 +15383,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15402,13 +15402,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15445,14 +15440,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15466,11 +15461,11 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15507,14 +15502,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15526,13 +15521,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>21.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15569,14 +15559,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15589,7 +15579,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15626,14 +15616,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15646,7 +15636,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15683,14 +15673,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45126</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15703,7 +15693,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15740,14 +15730,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15765,7 +15755,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15802,14 +15792,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45587</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15821,8 +15811,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15859,14 +15854,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15884,7 +15879,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15921,14 +15916,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15940,8 +15935,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15978,14 +15978,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15997,8 +15997,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16035,14 +16040,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16054,13 +16059,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16097,14 +16097,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>45958</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16154,14 +16154,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44589</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16211,14 +16211,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44916</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16230,13 +16230,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16273,14 +16268,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45611</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16288,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16330,14 +16325,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16350,7 +16345,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16387,14 +16382,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45139</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16406,8 +16401,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16444,14 +16444,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16501,14 +16501,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.7</v>
+        <v>7.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16558,14 +16558,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45708</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16577,13 +16577,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16620,14 +16615,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16639,8 +16634,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16677,14 +16677,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45070</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16696,13 +16696,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16739,14 +16734,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16759,7 +16754,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16796,14 +16791,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45567</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16815,13 +16810,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16858,14 +16848,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16877,8 +16867,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16915,14 +16910,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44708</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16972,14 +16967,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16987,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17029,14 +17024,14 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17048,8 +17043,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z278"/>
+  <dimension ref="A1:Z279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 37936-2021</t>
+          <t>A 56472-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44403</v>
+        <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1089,227 +1089,227 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 52540-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45954.54748842592</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 37936-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44403</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 56472-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45625.46011574074</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 52540-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45954.54748842592</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2193,14 +2193,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48116-2021</t>
+          <t>A 64161-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44449.46109953704</v>
+        <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 41619-2021</t>
+          <t>A 32291-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44425.44590277778</v>
+        <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2312,14 +2312,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 64161-2021</t>
+          <t>A 26564-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44510</v>
+        <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2369,14 +2369,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 68513-2021</t>
+          <t>A 41626-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44529.46652777777</v>
+        <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2388,8 +2388,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2426,14 +2431,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 32291-2021</t>
+          <t>A 4200-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44371.50600694444</v>
+        <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2445,13 +2450,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2488,14 +2488,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45095-2022</t>
+          <t>A 41617-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44842.46762731481</v>
+        <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2550,14 +2550,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 59408-2021</t>
+          <t>A 45095-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44491</v>
+        <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2569,8 +2569,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2607,14 +2612,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19495-2022</t>
+          <t>A 59408-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44693.49518518519</v>
+        <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2632,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2664,14 +2669,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63330-2021</t>
+          <t>A 48116-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44508.46548611111</v>
+        <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2689,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2721,14 +2726,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 66902-2021</t>
+          <t>A 41619-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44522</v>
+        <v>44425.44590277778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2740,8 +2745,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2778,14 +2788,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 26564-2021</t>
+          <t>A 68513-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44348.55476851852</v>
+        <v>44529.46652777777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2808,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2835,14 +2845,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26569-2021</t>
+          <t>A 19495-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44348</v>
+        <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2865,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2892,14 +2902,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46909-2021</t>
+          <t>A 63330-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44446.46452546296</v>
+        <v>44508.46548611111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2922,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2949,14 +2959,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 43255-2021</t>
+          <t>A 26569-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44432</v>
+        <v>44348</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2979,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3006,14 +3016,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 66902-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3036,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3063,14 +3073,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 43255-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3093,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3120,14 +3130,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51006-2021</t>
+          <t>A 27794-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44460.88979166667</v>
+        <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3150,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3177,14 +3187,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 46909-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3207,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3234,14 +3244,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27794-2022</t>
+          <t>A 26561-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44743</v>
+        <v>44348.5505787037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3264,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3291,14 +3301,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41626-2021</t>
+          <t>A 51006-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44425.45453703704</v>
+        <v>44460.88979166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3310,13 +3320,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3353,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 26561-2021</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44348.5505787037</v>
+        <v>45267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3370,6 +3375,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -3410,14 +3420,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44867</v>
+        <v>44743</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3430,7 +3440,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3467,14 +3477,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3487,7 +3497,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3524,14 +3534,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44743</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3544,7 +3554,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3581,14 +3591,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45322</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3601,7 +3611,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3638,14 +3648,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44300</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3658,7 +3668,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3695,14 +3705,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45267</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3714,13 +3724,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3757,14 +3762,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3782,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3814,14 +3819,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45058</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3839,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3871,14 +3876,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3896,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3928,14 +3933,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3945,6 +3950,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -3985,14 +3995,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>44300</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4004,13 +4014,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4047,14 +4052,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45017</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4068,11 +4073,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4109,14 +4114,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44314</v>
+        <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4130,11 +4135,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4171,14 +4176,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4191,7 +4196,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4228,14 +4233,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4200-2022</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44588.60006944444</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4253,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4285,14 +4290,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4310,7 +4315,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4347,14 +4352,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4367,7 +4372,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4404,14 +4409,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4423,13 +4428,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45611</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4523,14 +4523,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45016</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,13 +4542,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4585,14 +4580,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4605,7 +4600,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4642,14 +4637,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45708</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4662,7 +4657,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4699,14 +4694,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45708</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4719,7 +4714,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4756,14 +4751,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45714.513125</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,13 +4770,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4818,14 +4808,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45587</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4837,8 +4827,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4875,14 +4870,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41617-2021</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44425.44458333333</v>
+        <v>45364</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4896,11 +4891,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4937,14 +4932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4956,8 +4951,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4994,14 +4994,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 8438-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>46065.39539351852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,8 +5013,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5051,14 +5056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5071,7 +5076,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5108,14 +5113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,8 +5132,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5165,14 +5175,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44865</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5184,8 +5194,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5222,14 +5237,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5242,7 +5257,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5279,14 +5294,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5299,7 +5314,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5336,14 +5351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5355,13 +5370,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5398,14 +5408,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45139</v>
+        <v>44767</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5418,7 +5428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5455,14 +5465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5475,7 +5485,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5512,14 +5522,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5531,8 +5541,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5569,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45708</v>
+        <v>45890</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5589,7 +5604,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5626,14 +5641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5645,13 +5660,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5688,14 +5698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5709,11 +5719,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5750,14 +5760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5769,8 +5779,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5807,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45891.404375</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5827,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5864,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45587</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5883,8 +5898,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5921,14 +5941,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>44865</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5941,7 +5961,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5978,14 +5998,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5998,7 +6018,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6035,14 +6055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45587</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6055,7 +6075,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6092,14 +6112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6117,7 +6137,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6154,14 +6174,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45567</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6173,13 +6193,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6216,14 +6231,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6236,7 +6251,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6273,14 +6288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44589</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6293,7 +6308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6330,14 +6345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6347,11 +6362,6 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -6392,14 +6402,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6411,8 +6421,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6449,14 +6464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6469,7 +6484,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6506,14 +6521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6525,8 +6540,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6563,14 +6583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>44587</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6583,7 +6603,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6620,14 +6640,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6645,7 +6665,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6682,14 +6702,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6702,7 +6722,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6739,14 +6759,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45126</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6759,7 +6779,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6796,14 +6816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6816,7 +6836,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6853,14 +6873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6873,7 +6893,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6910,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45670</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6930,7 +6950,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6967,14 +6987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6986,13 +7006,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7029,14 +7044,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7048,13 +7063,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7091,14 +7101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7112,11 +7122,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7153,14 +7163,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7172,13 +7182,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7215,14 +7220,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7240,7 +7245,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7277,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7296,8 +7301,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7334,14 +7344,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7353,8 +7363,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7391,14 +7406,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7411,7 +7426,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7448,14 +7463,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7468,7 +7483,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7505,14 +7520,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7525,7 +7540,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7562,14 +7577,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7581,8 +7596,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7619,14 +7639,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45322</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7639,7 +7659,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7676,14 +7696,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45670</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7696,7 +7716,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7733,14 +7753,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44916</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7754,11 +7774,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7815,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45874</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7815,7 +7835,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7852,14 +7872,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45233</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7871,8 +7891,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7909,14 +7934,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44767</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7929,7 +7954,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7966,14 +7991,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7986,7 +8011,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8023,14 +8048,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44587</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8043,7 +8068,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8080,14 +8105,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8100,7 +8125,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8137,14 +8162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>44978</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8157,7 +8182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8194,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8214,7 +8239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8251,14 +8276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8271,7 +8296,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8308,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8328,7 +8353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8365,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8385,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8422,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8442,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8479,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8498,8 +8523,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8536,14 +8566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45708</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8556,7 +8586,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8593,14 +8623,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
         <v>45058</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8613,7 +8643,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8650,14 +8680,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45097</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8670,7 +8700,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8707,14 +8737,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8726,13 +8756,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8769,14 +8794,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44468</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8789,7 +8814,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8826,14 +8851,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8845,8 +8870,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8883,14 +8913,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44955</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8903,7 +8933,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8940,14 +8970,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8960,7 +8990,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8997,14 +9027,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9017,7 +9047,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9054,14 +9084,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9073,13 +9103,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9116,14 +9141,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9136,7 +9161,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9173,14 +9198,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9192,13 +9217,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9235,14 +9255,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9254,13 +9274,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>14.7</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9297,14 +9312,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9318,11 +9333,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9374,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45202</v>
+        <v>44314</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9378,8 +9393,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9416,14 +9436,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9436,7 +9456,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9473,14 +9493,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45215</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9498,7 +9518,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9535,14 +9555,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9555,7 +9575,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9592,14 +9612,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9612,7 +9632,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9649,14 +9669,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9668,13 +9688,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9711,14 +9726,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44708</v>
+        <v>45322</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9731,7 +9746,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>9.699999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9768,14 +9783,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45758</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9793,7 +9808,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9830,14 +9845,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9849,13 +9864,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9892,14 +9902,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>44867</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9912,7 +9922,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9949,14 +9959,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>45775</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9968,8 +9978,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10006,14 +10021,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45775</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10031,7 +10046,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10068,14 +10083,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>45587</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10088,7 +10103,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10125,14 +10140,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10145,7 +10160,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10182,14 +10197,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10202,7 +10217,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10239,14 +10254,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10259,7 +10274,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10296,14 +10311,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10315,8 +10330,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10353,14 +10373,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45215</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10372,8 +10392,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10410,14 +10435,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45874</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10430,7 +10455,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10467,14 +10492,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10486,13 +10511,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10529,14 +10549,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10548,13 +10568,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10591,14 +10606,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45233</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10610,13 +10625,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10653,14 +10663,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45322</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10673,7 +10683,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10710,14 +10720,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10729,8 +10739,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10767,14 +10782,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45710</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10786,8 +10801,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10824,14 +10844,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10849,7 +10869,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10886,14 +10906,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10911,7 +10931,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10948,14 +10968,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10973,7 +10993,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11010,14 +11030,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11030,7 +11050,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11067,14 +11087,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,13 +11106,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11129,14 +11144,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45958</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,13 +11163,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11191,14 +11201,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,13 +11220,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11253,14 +11258,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45070</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,13 +11277,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11315,14 +11315,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11334,8 +11334,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>14.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11372,14 +11377,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45364</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11391,13 +11396,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11434,14 +11434,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45708</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11453,8 +11453,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11491,14 +11496,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45016</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11516,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11548,14 +11553,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>44468</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11568,7 +11573,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11605,14 +11610,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11624,8 +11629,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11662,14 +11672,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11692,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11719,14 +11729,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45202</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11739,7 +11749,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11776,14 +11786,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11795,13 +11805,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11838,14 +11843,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44798</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11863,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11895,14 +11900,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11915,7 +11920,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>10.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11952,14 +11957,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11971,8 +11976,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12009,14 +12019,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12028,13 +12038,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12071,14 +12076,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12090,8 +12095,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12128,14 +12138,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45097</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12148,7 +12158,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12185,14 +12195,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>44955</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12205,7 +12215,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12242,14 +12252,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12261,13 +12271,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12304,14 +12309,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12323,8 +12328,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12361,14 +12371,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12380,13 +12390,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12423,14 +12428,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12443,7 +12448,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12480,14 +12485,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12500,7 +12505,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12537,14 +12542,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45890</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12557,7 +12562,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12594,14 +12599,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12613,8 +12618,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12651,14 +12661,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12670,8 +12680,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12708,14 +12723,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12733,7 +12748,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12770,14 +12785,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12790,7 +12805,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12827,14 +12842,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>44798</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12846,13 +12861,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12889,14 +12899,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12909,7 +12919,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12946,14 +12956,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45058</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13003,14 +13013,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13023,7 +13033,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13060,14 +13070,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13079,13 +13089,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13122,14 +13127,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13139,11 +13144,6 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -13184,14 +13184,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13203,8 +13203,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13241,14 +13246,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45017</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13266,7 +13271,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13303,14 +13308,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45017</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13328,7 +13333,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13365,14 +13370,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13390,7 +13395,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>14.7</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13427,14 +13432,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13446,13 +13451,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13489,14 +13489,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44978</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13546,14 +13546,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13567,11 +13567,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13608,14 +13608,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13629,11 +13629,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13670,14 +13670,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13727,14 +13727,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13744,11 +13744,6 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -13789,14 +13784,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13808,8 +13803,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13846,14 +13846,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13903,14 +13903,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13960,14 +13960,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13979,8 +13979,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14017,14 +14022,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45587</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14037,7 +14042,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14074,14 +14079,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14093,8 +14098,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14131,14 +14141,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14150,13 +14160,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14193,14 +14198,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14218,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14250,14 +14255,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14269,8 +14274,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14307,14 +14317,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14326,13 +14336,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14369,14 +14374,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14388,13 +14393,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14431,14 +14431,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>44916</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14452,11 +14452,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14493,14 +14493,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,13 +14512,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14555,14 +14550,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14574,13 +14569,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14617,14 +14607,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45139</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14636,13 +14626,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14679,14 +14664,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14699,7 +14684,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14736,14 +14721,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14756,7 +14741,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14793,14 +14778,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,8 +14797,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14850,14 +14840,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14869,13 +14859,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14912,14 +14897,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45070</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14931,8 +14916,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14969,14 +14959,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14989,7 +14979,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15026,14 +15016,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45567</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15045,8 +15035,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15083,14 +15078,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15103,7 +15098,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15140,14 +15135,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>44708</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15160,7 +15155,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15197,14 +15192,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45758</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15216,13 +15211,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15259,14 +15249,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45775</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15278,13 +15268,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15321,14 +15306,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45775</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15340,13 +15325,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15383,14 +15363,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15403,7 +15383,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15440,14 +15420,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15459,13 +15439,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15502,14 +15477,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15521,8 +15496,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>21.3</v>
+        <v>3.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15559,14 +15539,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15578,8 +15558,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15616,14 +15601,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15635,8 +15620,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15673,14 +15663,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15692,8 +15682,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>14.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15730,14 +15725,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15749,13 +15744,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15792,14 +15782,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15811,13 +15801,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15854,14 +15839,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15873,13 +15858,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15916,14 +15896,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15935,13 +15915,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15978,14 +15953,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15997,13 +15972,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16040,14 +16010,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16060,7 +16030,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16097,14 +16067,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45958</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16116,8 +16086,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16154,14 +16129,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16173,8 +16148,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16211,14 +16191,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16231,7 +16211,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16268,14 +16248,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45611</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16287,8 +16267,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16325,14 +16310,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16344,8 +16329,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16382,14 +16372,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16407,7 +16397,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16444,14 +16434,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16463,8 +16453,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16501,14 +16496,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16520,8 +16515,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16558,14 +16558,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45708</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16577,8 +16577,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16615,14 +16620,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16634,13 +16639,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16677,14 +16677,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16696,8 +16696,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16734,14 +16739,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16759,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16791,14 +16796,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16811,7 +16816,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16848,14 +16853,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16869,11 +16874,11 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16910,14 +16915,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16930,7 +16935,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>9.699999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16967,14 +16972,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16987,7 +16992,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17021,17 +17026,17 @@
       </c>
       <c r="R277" s="2" t="inlineStr"/>
     </row>
-    <row r="278">
+    <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17045,11 +17050,11 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17082,6 +17087,63 @@
         <v>0</v>
       </c>
       <c r="R278" s="2" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>A 29566-2024</t>
+        </is>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>45484.54526620371</v>
+      </c>
+      <c r="C279" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56472-2024</t>
+          <t>A 52540-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45625.46011574074</v>
+        <v>45954.54748842592</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,8 +1064,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1099,128 +1104,123 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56472-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45625.46011574074</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 52540-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45954.54748842592</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,14 +1313,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 44576-2022</t>
+          <t>A 18630-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44840.49480324074</v>
+        <v>44306</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18630-2021</t>
+          <t>A 44576-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44306</v>
+        <v>44840.49480324074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2726,14 +2726,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41619-2021</t>
+          <t>A 68513-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44425.44590277778</v>
+        <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2745,13 +2745,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2788,14 +2783,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 68513-2021</t>
+          <t>A 41619-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44529.46652777777</v>
+        <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2807,8 +2802,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2902,14 +2902,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63330-2021</t>
+          <t>A 26569-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44508.46548611111</v>
+        <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2959,14 +2959,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 26569-2021</t>
+          <t>A 63330-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44348</v>
+        <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3244,14 +3244,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 26561-2021</t>
+          <t>A 51006-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44348.5505787037</v>
+        <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3301,14 +3301,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51006-2021</t>
+          <t>A 26561-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44460.88979166667</v>
+        <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3358,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45267</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3377,13 +3377,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3420,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44743</v>
+        <v>45267</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3439,8 +3434,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>45625.4474537037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         <v>45625.45034722222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>45625.45663194444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3648,14 +3648,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>44743</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3705,14 +3705,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3762,14 +3762,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3819,14 +3819,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>45113.48390046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3933,14 +3933,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>44300</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3952,13 +3952,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3995,14 +3990,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44300</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4014,8 +4009,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>45017</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>45710</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4290,14 +4290,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45364</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4311,11 +4311,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4352,14 +4352,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,8 +4371,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4409,14 +4414,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4429,7 +4434,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4471,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45611</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4486,7 +4491,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4523,14 +4528,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45016</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4543,7 +4548,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4580,14 +4585,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4600,7 +4605,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4637,14 +4642,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45708</v>
+        <v>45611</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4694,14 +4699,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45708</v>
+        <v>45890</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4714,7 +4719,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4751,14 +4756,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45714.513125</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4771,7 +4776,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4808,14 +4813,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45891.404375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4827,13 +4832,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4870,14 +4870,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45364</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4891,11 +4891,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4949,11 +4949,6 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -4994,14 +4989,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8438-2026</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46065.39539351852</v>
+        <v>45708</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5013,13 +5008,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5056,14 +5046,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5075,8 +5065,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5113,14 +5108,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5132,13 +5127,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5175,14 +5165,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45708</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5194,13 +5184,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5237,14 +5222,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5256,8 +5241,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5294,14 +5284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45016</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5314,7 +5304,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5351,14 +5341,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45714.513125</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5371,7 +5361,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5408,14 +5398,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44767</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5427,8 +5417,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5465,14 +5460,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5484,8 +5479,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5522,14 +5522,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5541,13 +5541,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5579,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45890</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5603,8 +5598,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5660,8 +5660,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5698,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5723,7 +5728,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5760,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5777,11 +5782,6 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -5822,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45891.404375</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5898,13 +5898,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5941,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44865</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5961,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5998,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6017,8 +6012,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6055,14 +6055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6074,8 +6074,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6112,14 +6117,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6131,13 +6136,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6174,14 +6174,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6193,8 +6193,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6231,14 +6236,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6256,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6288,14 +6293,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6307,8 +6312,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6345,14 +6355,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>44767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6365,7 +6375,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6402,14 +6412,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6421,13 +6431,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6469,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6489,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6526,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6540,13 +6545,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6583,14 +6583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44587</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6640,14 +6640,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6659,13 +6659,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6702,14 +6697,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6722,7 +6717,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6759,14 +6754,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6778,8 +6773,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6816,14 +6816,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>44865</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6873,14 +6873,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,8 +6949,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6987,14 +6992,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7007,7 +7012,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7044,14 +7049,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7064,7 +7069,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7101,14 +7106,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,13 +7125,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7163,14 +7163,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7182,8 +7182,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7220,14 +7225,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7239,13 +7244,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7282,14 +7282,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>44587</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7301,13 +7301,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7344,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7361,11 +7356,6 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -7406,14 +7396,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7426,7 +7416,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7463,14 +7453,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7483,7 +7473,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7520,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7540,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7577,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7596,13 +7586,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7639,14 +7624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45322</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7696,14 +7681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45670</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7716,7 +7701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7753,14 +7738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7772,13 +7757,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7815,14 +7795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45874</v>
+        <v>45758</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7834,8 +7814,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7872,14 +7857,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45233</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7897,7 +7882,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7934,14 +7919,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7953,8 +7938,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7991,14 +7981,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8011,7 +8001,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8048,14 +8038,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8067,8 +8057,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8105,14 +8100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8125,7 +8120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8162,14 +8157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44978</v>
+        <v>45775</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8181,8 +8176,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>45775</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8238,8 +8238,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8276,14 +8281,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8296,7 +8301,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8333,14 +8338,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8352,8 +8357,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8390,14 +8400,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8420,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8457,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45874</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8477,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8514,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8521,11 +8531,6 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -8566,14 +8571,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45708</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8586,7 +8591,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8628,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45058</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8643,7 +8648,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8680,14 +8685,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8700,7 +8705,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8737,14 +8742,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8762,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8794,14 +8799,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8814,7 +8819,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8851,14 +8856,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8870,13 +8875,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8913,14 +8913,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8932,8 +8932,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8970,14 +8975,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45587</v>
+        <v>45322</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8990,7 +8995,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9027,14 +9032,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9046,8 +9051,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9084,14 +9094,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9103,8 +9113,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9141,14 +9156,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9160,8 +9175,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9198,14 +9218,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45670</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9218,7 +9238,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9255,14 +9275,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9274,8 +9294,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9312,14 +9337,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9333,11 +9358,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9374,14 +9399,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44314</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9393,13 +9418,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9436,14 +9456,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45958</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9456,7 +9476,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9493,14 +9513,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45708</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9512,13 +9532,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9555,14 +9570,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9575,7 +9590,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9612,14 +9627,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9632,7 +9647,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9669,14 +9684,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45233</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9688,8 +9703,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9726,14 +9746,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45322</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9746,7 +9766,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9783,14 +9803,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45758</v>
+        <v>44978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9802,13 +9822,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9845,14 +9860,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9865,7 +9880,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9902,14 +9917,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44867</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9922,7 +9937,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9959,14 +9974,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45775</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9978,13 +9993,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10021,14 +10031,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45775</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10040,13 +10050,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10083,14 +10088,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 8438-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45587</v>
+        <v>46065.39539351852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10102,8 +10107,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10140,14 +10150,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10159,8 +10169,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10197,14 +10212,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45058</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10217,7 +10232,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10254,14 +10269,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10274,7 +10289,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10311,14 +10326,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10330,13 +10345,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10373,14 +10383,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45215</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10392,13 +10402,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10435,14 +10440,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,8 +10459,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10492,14 +10502,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45587</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10512,7 +10522,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10549,14 +10559,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10569,7 +10579,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10606,14 +10616,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10626,7 +10636,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10663,14 +10673,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10683,7 +10693,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10720,14 +10730,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10741,11 +10751,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10782,14 +10792,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10807,7 +10817,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10844,14 +10854,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>44314</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10865,11 +10875,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10906,14 +10916,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,13 +10935,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>5.4</v>
+        <v>0.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10968,14 +10973,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10993,7 +10998,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11030,14 +11035,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11050,7 +11055,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11087,14 +11092,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11107,7 +11112,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11144,14 +11149,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45958</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11164,7 +11169,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11201,14 +11206,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45322</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11221,7 +11226,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11258,14 +11263,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>44867</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11283,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11315,14 +11320,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45587</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11334,13 +11339,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>14.7</v>
+        <v>5.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11377,14 +11377,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11434,14 +11434,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11453,13 +11453,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11496,14 +11491,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11516,7 +11511,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11553,14 +11548,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44468</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11572,8 +11567,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11610,14 +11610,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45215</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11672,14 +11672,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11729,14 +11729,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45202</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11786,14 +11786,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11843,14 +11843,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.4</v>
+        <v>2.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11900,14 +11900,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11919,8 +11919,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>10.9</v>
+        <v>14.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11957,14 +11962,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11982,7 +11987,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12019,14 +12024,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12039,7 +12044,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12076,14 +12081,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>44468</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12095,13 +12100,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12138,14 +12138,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45097</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12157,8 +12157,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12195,14 +12200,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44955</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12220,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12252,14 +12257,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45202</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12277,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12309,14 +12314,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,13 +12333,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12371,14 +12371,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12428,14 +12428,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12445,6 +12445,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -12485,14 +12490,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12505,7 +12510,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12542,14 +12547,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12561,8 +12566,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12599,14 +12609,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>45097</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12618,13 +12628,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12661,14 +12666,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>44955</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12680,13 +12685,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12723,14 +12723,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12742,13 +12742,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12785,14 +12780,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12805,7 +12800,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12842,14 +12837,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44798</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12862,7 +12857,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12899,14 +12894,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12918,8 +12913,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12956,14 +12956,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45058</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12975,8 +12975,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13013,14 +13018,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13032,8 +13037,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13070,14 +13080,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13090,7 +13100,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13127,14 +13137,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>44798</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13147,7 +13157,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13184,14 +13194,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13203,13 +13213,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13246,14 +13251,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45058</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13265,13 +13270,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13308,14 +13308,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13327,13 +13327,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13370,14 +13365,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13389,13 +13384,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13432,14 +13422,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13452,7 +13442,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13489,14 +13479,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13508,8 +13498,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13546,14 +13541,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13571,7 +13566,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13608,14 +13603,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13633,7 +13628,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13670,14 +13665,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13689,8 +13684,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13727,14 +13727,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13746,8 +13746,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13784,14 +13789,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13803,13 +13808,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13853,7 +13853,7 @@
         <v>45667.28696759259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45126</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>45579.50758101852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45587</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>44509.69895833333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45772.40685185185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44818.62685185186</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45376.38177083333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45398.68222222223</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44589</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44916</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45755.30775462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45320.86557870371</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45139</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45063.56233796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44664.45688657407</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45775.55607638889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14847,7 +14847,7 @@
         <v>44814.81546296296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>45070</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>44893.46648148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>45567</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>45757.35355324074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44708</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45540.60707175926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44741.41038194444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>45567.70056712963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44818.32547453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>45772.65694444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>45775.48229166667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45775.48774305556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45761.68496527777</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45761.67996527778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
         <v>44643.59888888889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>45223.62657407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44536.47980324074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44536.48008101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>45610.56901620371</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45677.47734953704</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44916.62188657407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44916.63834490741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>45035.58962962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>45777.3215625</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45776.44914351852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45777.32519675926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>45777.32569444444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45777.32798611111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>45777.35261574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>45607.69770833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>45777.32888888889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>45560.5765625</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>45646.46565972222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>45784.59821759259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>45784.5059837963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45544.54753472222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45688.45554398148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45484.54526620371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45625.46011574074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,14 +1313,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18630-2021</t>
+          <t>A 44576-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44306</v>
+        <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 44576-2022</t>
+          <t>A 18630-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44840.49480324074</v>
+        <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3415,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45267</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3434,13 +3434,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3477,14 +3472,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3497,7 +3492,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3534,14 +3529,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3554,7 +3549,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3591,14 +3586,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45267</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3610,8 +3605,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>44743</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44529.46170138889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3762,14 +3762,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3819,14 +3819,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>45113.48390046296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>44300</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45637.7069212963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4052,14 +4052,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45017</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4071,13 +4071,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4114,14 +4109,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45017</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4133,13 +4128,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4176,14 +4166,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45710</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4195,8 +4185,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4233,14 +4228,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4253,7 +4248,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4290,14 +4285,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45364</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4309,13 +4304,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>21.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4352,14 +4342,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45364</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4373,11 +4363,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4414,14 +4404,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45017</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4433,8 +4423,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4471,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45017</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4490,8 +4485,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4528,14 +4528,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45710</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>45891.62295138889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4642,14 +4642,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45611</v>
+        <v>45890</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4699,14 +4699,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45890</v>
+        <v>45891.404375</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4756,14 +4756,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4775,8 +4775,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4813,14 +4818,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4833,7 +4838,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4870,14 +4875,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4889,13 +4894,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,8 +4951,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4989,14 +4994,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45708</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5009,7 +5014,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5046,14 +5051,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45611</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5065,13 +5070,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5108,14 +5108,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5127,8 +5127,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5165,14 +5170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45708</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5185,7 +5190,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5222,14 +5227,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45708</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5241,13 +5246,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5284,14 +5284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45016</v>
+        <v>45708</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5341,14 +5341,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,8 +5360,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5398,14 +5403,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5423,7 +5428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5460,14 +5465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5479,13 +5484,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5522,14 +5522,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45016</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>9.699999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5579,14 +5579,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5598,13 +5598,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5641,14 +5636,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45714.513125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5660,13 +5655,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5703,14 +5693,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5728,7 +5718,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5755,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5784,8 +5774,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5842,7 +5837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5879,14 +5874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5898,8 +5893,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5955,8 +5955,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5998,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6012,13 +6017,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6055,14 +6055,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6074,13 +6074,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6117,14 +6112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6137,7 +6132,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6174,14 +6169,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6191,11 +6186,6 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -6236,14 +6226,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6256,7 +6246,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6293,14 +6283,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6318,7 +6308,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6355,14 +6345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44767</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6374,8 +6364,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6412,14 +6407,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6432,7 +6427,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6469,14 +6464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6488,8 +6483,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6526,14 +6526,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>44767</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6583,14 +6583,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6640,14 +6640,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6697,14 +6697,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6754,14 +6754,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6773,13 +6773,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6816,14 +6811,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44865</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6836,7 +6831,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6873,14 +6868,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6893,7 +6888,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6925,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>44865</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6949,13 +6944,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6992,14 +6982,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7012,7 +7002,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7049,14 +7039,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7069,7 +7059,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7106,14 +7096,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7125,8 +7115,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7163,14 +7158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7182,13 +7177,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7225,14 +7215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7245,7 +7235,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7282,14 +7272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44587</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7302,7 +7292,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7339,14 +7329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7359,7 +7349,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7396,14 +7386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45758</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7415,8 +7405,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7453,14 +7448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7472,8 +7467,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7510,14 +7510,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7567,14 +7567,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45775</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7586,8 +7586,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7624,14 +7629,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>45775</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7643,8 +7648,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7681,14 +7691,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>44587</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7738,14 +7748,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7758,7 +7768,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7795,14 +7805,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45758</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7814,13 +7824,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7857,14 +7862,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7876,13 +7881,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7919,14 +7919,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7938,13 +7938,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7981,14 +7976,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8001,7 +7996,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8038,14 +8033,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8057,13 +8052,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8090,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8110,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8147,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45775</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8176,13 +8166,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8204,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45775</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8238,13 +8223,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8281,14 +8261,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8300,8 +8280,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8338,14 +8323,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8359,11 +8344,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8400,14 +8385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,8 +8404,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8457,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45874</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,8 +8466,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8514,14 +8509,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8534,7 +8529,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8571,14 +8566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8591,7 +8586,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8628,14 +8623,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,8 +8642,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8685,14 +8685,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8704,8 +8704,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8742,14 +8747,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8761,8 +8766,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8799,14 +8809,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8818,8 +8828,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8856,14 +8871,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8891,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8913,14 +8928,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8938,7 +8953,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8975,14 +8990,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45322</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8994,8 +9009,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9032,14 +9052,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,13 +9071,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9094,14 +9109,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45958</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9113,13 +9128,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9156,14 +9166,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9175,13 +9185,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9218,14 +9223,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45670</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9238,7 +9243,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9275,14 +9280,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9294,13 +9299,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9337,14 +9337,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45874</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9356,13 +9356,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9399,14 +9394,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9419,7 +9414,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9456,14 +9451,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45958</v>
+        <v>45670</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9476,7 +9471,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9513,14 +9508,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45708</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9532,8 +9527,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9570,14 +9570,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9627,14 +9627,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9647,7 +9647,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>45233</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9746,14 +9746,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9803,14 +9803,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44978</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9860,14 +9860,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9917,14 +9917,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>44978</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9974,14 +9974,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10031,14 +10031,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10088,14 +10088,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8438-2026</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46065.39539351852</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10107,13 +10107,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10157,7 +10152,7 @@
         <v>45757.77708333333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10219,7 +10214,7 @@
         <v>45058</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10269,14 +10264,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45708</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10284,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10326,14 +10321,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10346,7 +10341,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10383,14 +10378,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10403,7 +10398,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10440,14 +10435,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10459,13 +10454,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10502,14 +10492,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45587</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10521,8 +10511,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10559,14 +10554,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45587</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10579,7 +10574,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10616,14 +10611,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10673,14 +10668,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10693,7 +10688,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10730,14 +10725,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10749,13 +10744,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10792,14 +10782,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10813,11 +10803,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10861,7 +10851,7 @@
         <v>44314</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10923,7 +10913,7 @@
         <v>45741.70509259259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10980,7 +10970,7 @@
         <v>45761.68358796297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11035,14 +11025,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11055,7 +11045,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11092,14 +11082,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11112,7 +11102,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11149,14 +11139,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11169,7 +11159,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11213,7 +11203,7 @@
         <v>45322</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,14 +11253,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44867</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11280,6 +11270,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -11320,14 +11315,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45587</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11340,7 +11335,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11377,14 +11372,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>44867</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11397,7 +11392,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11434,14 +11429,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45587</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11454,7 +11449,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11491,14 +11486,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11511,7 +11506,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11548,14 +11543,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11567,13 +11562,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11610,14 +11600,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45215</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11635,7 +11625,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11672,14 +11662,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11692,7 +11682,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11729,14 +11719,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11748,8 +11738,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11786,14 +11781,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>45215</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11805,8 +11800,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11843,14 +11843,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11900,14 +11900,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11919,13 +11919,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>14.7</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11962,14 +11957,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11981,13 +11976,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12024,14 +12014,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12034,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12081,14 +12071,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44468</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12100,8 +12090,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>14.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12138,14 +12133,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12163,7 +12158,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12200,14 +12195,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12220,7 +12215,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12257,14 +12252,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45202</v>
+        <v>44468</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12277,7 +12272,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12314,14 +12309,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12331,6 +12326,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -12371,14 +12371,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 8438-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>46065.39539351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,8 +12390,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>10.9</v>
+        <v>4.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12428,14 +12433,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12447,13 +12452,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12490,14 +12490,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45202</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12547,14 +12547,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12564,11 +12564,6 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -12609,14 +12604,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45097</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12629,7 +12624,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>10.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12666,14 +12661,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44955</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12685,8 +12680,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12723,14 +12723,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12780,14 +12780,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12797,6 +12797,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -12837,14 +12842,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45097</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12857,7 +12862,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12894,14 +12899,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>44955</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12913,13 +12918,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12956,14 +12956,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12975,13 +12975,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13018,14 +13013,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13037,13 +13032,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13080,14 +13070,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13100,7 +13090,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13137,14 +13127,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44798</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13156,8 +13146,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13194,14 +13189,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13213,8 +13208,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13251,14 +13251,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45058</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13270,8 +13270,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13308,14 +13313,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13328,7 +13333,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13365,14 +13370,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>44798</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13385,7 +13390,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13422,14 +13427,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13442,7 +13447,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13479,14 +13484,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45058</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13498,13 +13503,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13541,14 +13541,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13560,13 +13560,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13603,14 +13598,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13622,13 +13617,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13665,14 +13655,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13684,13 +13674,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13727,14 +13712,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13748,11 +13733,11 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13789,14 +13774,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13808,8 +13793,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13846,14 +13836,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13865,8 +13855,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13903,14 +13898,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45126</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13922,8 +13917,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13960,14 +13960,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14022,14 +14022,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45587</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14079,14 +14079,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14098,13 +14098,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14141,14 +14136,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45126</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14161,7 +14156,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14198,14 +14193,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14217,8 +14212,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14255,14 +14255,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45587</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14274,13 +14274,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14317,14 +14312,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14336,8 +14331,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14374,14 +14374,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44589</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14431,14 +14431,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44916</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14450,13 +14450,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14493,14 +14488,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14512,8 +14507,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14550,14 +14550,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14607,14 +14607,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45139</v>
+        <v>44589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14664,14 +14664,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>44916</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14683,8 +14683,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14721,14 +14726,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14746,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14778,14 +14783,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14797,13 +14802,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14840,14 +14840,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45139</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14897,14 +14897,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45070</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14916,13 +14916,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14959,14 +14954,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14974,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15016,14 +15011,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45567</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15041,7 +15036,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15078,14 +15073,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15098,7 +15093,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15135,14 +15130,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44708</v>
+        <v>45070</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15154,8 +15149,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15192,14 +15192,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15212,7 +15212,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15249,14 +15249,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>45567</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15268,8 +15268,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15306,14 +15311,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15326,7 +15331,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15363,14 +15368,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>44708</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15383,7 +15388,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15420,14 +15425,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15440,7 +15445,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15477,14 +15482,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15496,13 +15501,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15539,14 +15539,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15558,13 +15558,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15601,14 +15596,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15620,13 +15615,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15663,14 +15653,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15682,13 +15672,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>14.7</v>
+        <v>2.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15725,14 +15710,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15744,8 +15729,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15782,14 +15772,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15801,8 +15791,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15839,14 +15834,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15858,8 +15853,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15896,14 +15896,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15915,8 +15915,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>14.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15953,14 +15958,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15973,7 +15978,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16010,14 +16015,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16030,7 +16035,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16067,14 +16072,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16086,13 +16091,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16129,14 +16129,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16148,13 +16148,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16191,14 +16186,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16211,7 +16206,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16248,14 +16243,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16265,11 +16260,6 @@
       <c r="E265" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -16310,14 +16300,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16331,11 +16321,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16372,14 +16362,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16393,11 +16383,11 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16434,14 +16424,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16453,13 +16443,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16496,14 +16481,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16521,7 +16506,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16558,14 +16543,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16583,7 +16568,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16620,14 +16605,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16639,8 +16624,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16677,14 +16667,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16702,7 +16692,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16739,14 +16729,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16758,8 +16748,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16796,14 +16791,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16815,8 +16810,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16853,14 +16853,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16872,13 +16872,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16915,14 +16910,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16934,8 +16929,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16972,14 +16972,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17029,14 +17029,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17048,13 +17048,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17091,14 +17086,14 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17110,8 +17105,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>21.3</v>
+        <v>3.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 18959-2021</t>
+          <t>A 52544-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44308</v>
+        <v>45954.55127314815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -883,17 +883,22 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -908,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -918,130 +923,125 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Grönsiska
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52544-2025 artfynd.xlsx", "A 52544-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52544-2025 karta.png", "A 52544-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52544-2025 FSC-klagomål.docx", "A 52544-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52544-2025 FSC-klagomål mail.docx", "A 52544-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52544-2025 tillsynsbegäran.docx", "A 52544-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52544-2025 tillsynsbegäran mail.docx", "A 52544-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52544-2025 prioriterade fågelarter.docx", "A 52544-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 18959-2021</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44308</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Brunpudrad nållav
 Tallticka</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 18959-2021 artfynd.xlsx", "A 18959-2021")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 18959-2021 karta.png", "A 18959-2021")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 18959-2021 FSC-klagomål.docx", "A 18959-2021")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 18959-2021 FSC-klagomål mail.docx", "A 18959-2021")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 18959-2021 tillsynsbegäran.docx", "A 18959-2021")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 18959-2021 tillsynsbegäran mail.docx", "A 18959-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 52544-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45954.55127314815</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönsiska
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52544-2025 artfynd.xlsx", "A 52544-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52544-2025 karta.png", "A 52544-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52544-2025 FSC-klagomål.docx", "A 52544-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52544-2025 FSC-klagomål mail.docx", "A 52544-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52544-2025 tillsynsbegäran.docx", "A 52544-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52544-2025 tillsynsbegäran mail.docx", "A 52544-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52544-2025 prioriterade fågelarter.docx", "A 52544-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1139,14 +1139,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 56472-2024</t>
+          <t>A 37936-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45625.46011574074</v>
+        <v>44403</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1183,144 +1183,144 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 56472-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45625.46011574074</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 37936-2021</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44403</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 44576-2022</t>
+          <t>A 18630-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44840.49480324074</v>
+        <v>44306</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18630-2021</t>
+          <t>A 44576-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44306</v>
+        <v>44840.49480324074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1551,14 +1551,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40770-2022</t>
+          <t>A 64155-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44824</v>
+        <v>44510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1570,8 +1570,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1608,14 +1613,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 64155-2021</t>
+          <t>A 40770-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44510</v>
+        <v>44824</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1627,13 +1632,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44522</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44432</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>44743</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>44300</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45267</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3548,8 +3548,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3586,14 +3591,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45267</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3605,13 +3610,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3648,14 +3648,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44743</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3705,14 +3705,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3762,14 +3762,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3819,14 +3819,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3876,14 +3876,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3895,8 +3895,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3933,14 +3938,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44300</v>
+        <v>44314</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3952,8 +3957,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3990,14 +4000,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4009,13 +4019,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4052,14 +4057,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4071,8 +4076,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4109,14 +4119,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4128,8 +4138,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4166,14 +4181,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4185,13 +4200,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4228,14 +4238,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4248,7 +4258,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.4</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4285,14 +4295,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4305,7 +4315,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>21.3</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4342,14 +4352,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45364</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4361,13 +4371,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4404,14 +4409,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45017</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4423,13 +4428,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45017</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4528,14 +4528,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45710</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4547,8 +4547,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4585,14 +4590,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4604,8 +4609,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4642,14 +4652,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45890</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4661,8 +4671,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4699,14 +4714,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,8 +4733,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4756,14 +4776,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45758</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4781,7 +4801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4818,14 +4838,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4837,8 +4857,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4875,14 +4900,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4895,7 +4920,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4932,14 +4957,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4951,13 +4976,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4994,14 +5014,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5014,7 +5034,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5051,14 +5071,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45611</v>
+        <v>45775</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5070,8 +5090,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5108,14 +5133,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5129,11 +5154,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5170,14 +5195,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5190,7 +5215,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5227,14 +5252,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45708</v>
+        <v>45890</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5247,7 +5272,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5284,14 +5309,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45708</v>
+        <v>45775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5303,8 +5328,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5341,14 +5371,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5360,13 +5390,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5403,14 +5428,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5428,7 +5453,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5465,14 +5490,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5485,7 +5510,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5522,14 +5547,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45016</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5541,8 +5566,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5579,14 +5609,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45891.404375</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5599,7 +5629,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5636,14 +5666,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5656,7 +5686,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5693,14 +5723,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5712,13 +5742,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5755,14 +5780,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5774,13 +5799,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5817,14 +5837,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5837,7 +5857,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5874,14 +5894,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5895,11 +5915,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5956,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5955,13 +5975,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>21.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5998,14 +6013,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6018,7 +6033,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6055,14 +6070,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6074,8 +6089,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6112,14 +6132,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6132,7 +6152,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6169,14 +6189,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6226,14 +6246,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6246,7 +6266,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6283,14 +6303,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6302,13 +6322,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6345,14 +6360,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6362,11 +6377,6 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -6407,14 +6417,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6427,7 +6437,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6474,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6481,11 +6491,6 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -6526,14 +6531,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44767</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6545,8 +6550,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6583,14 +6593,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6602,8 +6612,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6640,14 +6655,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6659,8 +6674,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6697,14 +6717,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6716,8 +6736,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6754,14 +6779,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6773,8 +6798,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6811,14 +6841,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>45611</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6861,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6868,14 +6898,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6888,7 +6918,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6925,14 +6955,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44865</v>
+        <v>45958</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6945,7 +6975,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6982,14 +7012,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7039,14 +7069,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7058,8 +7088,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7096,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7115,13 +7150,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7158,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7215,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7235,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7272,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7291,8 +7321,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7329,14 +7364,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7349,7 +7384,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7386,14 +7421,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45758</v>
+        <v>45708</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7405,13 +7440,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7448,14 +7478,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45708</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7467,13 +7497,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7510,14 +7535,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7530,7 +7555,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7567,14 +7592,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45775</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7586,13 +7611,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7629,14 +7649,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45775</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7648,13 +7668,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7691,14 +7706,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44587</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7711,7 +7726,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7748,14 +7763,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7768,7 +7783,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7805,14 +7820,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7824,8 +7839,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7862,14 +7882,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7882,7 +7902,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7919,14 +7939,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7939,7 +7959,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7976,14 +7996,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7995,8 +8015,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8033,14 +8058,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8053,7 +8078,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8090,14 +8115,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8110,7 +8135,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8147,14 +8172,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8166,8 +8191,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8204,14 +8234,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8224,7 +8254,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8261,14 +8291,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8286,7 +8316,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8323,14 +8353,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,13 +8372,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8385,14 +8410,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8435,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8472,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8468,11 +8493,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8509,14 +8534,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8528,8 +8553,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8566,14 +8596,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8585,8 +8615,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8658,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8642,13 +8677,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8685,14 +8715,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45587</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8704,13 +8734,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8747,14 +8772,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,13 +8791,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8809,14 +8829,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8828,13 +8848,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8871,14 +8886,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8891,7 +8906,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8928,14 +8943,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8947,13 +8962,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8990,14 +9000,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45587</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9009,13 +9019,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9052,14 +9057,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,8 +9076,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9109,14 +9119,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45958</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9129,7 +9139,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9166,14 +9176,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9185,8 +9195,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9223,14 +9238,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9243,7 +9258,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9280,14 +9295,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9300,7 +9315,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9337,14 +9352,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45874</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9354,6 +9369,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -9394,14 +9414,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45322</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9413,8 +9433,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9451,14 +9476,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45670</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9471,7 +9496,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9508,14 +9533,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9533,7 +9558,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9570,14 +9595,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9589,8 +9614,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9627,14 +9657,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9646,8 +9676,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9684,14 +9719,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45233</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9703,13 +9738,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9746,14 +9776,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9766,7 +9796,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9803,14 +9833,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9823,7 +9853,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9860,14 +9890,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9880,7 +9910,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9917,14 +9947,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44978</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9937,7 +9967,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9974,14 +10004,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9994,7 +10024,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10031,14 +10061,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45874</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10051,7 +10081,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10088,14 +10118,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10108,7 +10138,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10145,14 +10175,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45364</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10166,11 +10196,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10207,14 +10237,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45058</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10227,7 +10257,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10271,7 +10301,7 @@
         <v>45708</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10321,14 +10351,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10341,7 +10371,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>10.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10378,14 +10408,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10398,7 +10428,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10435,14 +10465,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,8 +10484,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10492,14 +10527,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45714.513125</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,13 +10546,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10554,14 +10584,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45587</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,8 +10603,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10611,14 +10646,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10631,7 +10666,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10668,14 +10703,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10688,7 +10723,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10725,14 +10760,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10745,7 +10780,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10782,14 +10817,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45710</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10801,13 +10836,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10844,14 +10874,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44314</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10863,13 +10893,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10906,14 +10931,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,8 +10950,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10963,14 +10993,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10988,7 +11018,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11025,14 +11055,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11044,8 +11074,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11082,14 +11117,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45070</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11101,8 +11136,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11139,14 +11179,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11159,7 +11199,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11196,14 +11236,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45322</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11216,7 +11256,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11253,14 +11293,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11278,7 +11318,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11315,14 +11355,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11335,7 +11375,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>9.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11379,7 +11419,7 @@
         <v>44867</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11429,14 +11469,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45587</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11449,7 +11489,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11486,14 +11526,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45058</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11506,7 +11546,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11543,14 +11583,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11563,7 +11603,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11600,14 +11640,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11625,7 +11665,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11662,14 +11702,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11682,7 +11722,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11719,14 +11759,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11740,11 +11780,11 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11781,14 +11821,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45215</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11806,7 +11846,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11843,14 +11883,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11863,7 +11903,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11900,14 +11940,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45587</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11920,7 +11960,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11957,14 +11997,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 8438-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>46065.39539351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11976,8 +12016,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12014,14 +12059,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>44865</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12034,7 +12079,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12071,14 +12116,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12096,7 +12141,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>14.7</v>
+        <v>5.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12133,14 +12178,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>45139</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12152,13 +12197,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12195,14 +12235,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12255,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12252,14 +12292,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44468</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12272,7 +12312,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12309,14 +12349,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12328,13 +12368,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12371,14 +12406,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8438-2026</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46065.39539351852</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12390,13 +12425,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12433,14 +12463,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12453,7 +12483,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12490,14 +12520,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45202</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12510,7 +12540,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12547,14 +12577,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45567</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12566,8 +12596,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12604,14 +12639,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>44589</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12624,7 +12659,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>10.9</v>
+        <v>2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12661,14 +12696,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12680,13 +12715,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12723,14 +12753,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12743,7 +12773,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12780,14 +12810,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45126</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12799,13 +12829,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12842,14 +12867,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45097</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12862,7 +12887,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12899,14 +12924,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44955</v>
+        <v>45670</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12919,7 +12944,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12956,14 +12981,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12975,8 +13000,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13013,14 +13043,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13033,7 +13063,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13070,14 +13100,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13090,7 +13120,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13127,14 +13157,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13146,13 +13176,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13189,14 +13214,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>44587</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13208,13 +13233,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13251,14 +13271,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13270,13 +13290,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13313,14 +13328,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13333,7 +13348,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13370,14 +13385,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44798</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13390,7 +13405,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13427,14 +13442,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13447,7 +13462,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13484,14 +13499,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45058</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13504,7 +13519,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13541,14 +13556,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45058</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13561,7 +13576,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13598,14 +13613,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13618,7 +13633,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13655,14 +13670,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13674,8 +13689,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13712,14 +13732,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13731,13 +13751,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13774,14 +13789,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13799,7 +13814,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13836,14 +13851,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13861,7 +13876,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13898,14 +13913,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13960,14 +13975,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45202</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13979,13 +13994,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14022,14 +14032,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45215</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14041,8 +14051,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14079,14 +14094,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14114,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14136,14 +14151,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45126</v>
+        <v>44708</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14171,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14193,14 +14208,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14212,13 +14227,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14255,14 +14265,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45587</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14274,8 +14284,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14312,14 +14327,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14331,13 +14346,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14374,14 +14384,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14394,7 +14404,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14431,14 +14441,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14451,7 +14461,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14488,14 +14498,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14507,13 +14517,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14550,14 +14555,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14575,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14607,14 +14612,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44589</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14626,8 +14631,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14664,14 +14674,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44916</v>
+        <v>45233</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14685,11 +14695,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14726,14 +14736,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45322</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14746,7 +14756,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14783,14 +14793,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14802,8 +14812,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14840,14 +14855,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45139</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14859,8 +14874,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14897,14 +14917,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14916,8 +14936,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14954,14 +14979,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14973,8 +14998,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15011,14 +15041,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15030,13 +15060,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15073,14 +15098,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15118,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15130,14 +15155,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45070</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,11 +15176,11 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15192,14 +15217,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>44798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15212,7 +15237,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15249,14 +15274,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45567</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15268,13 +15293,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15311,14 +15331,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15331,7 +15351,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15368,14 +15388,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44708</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15387,8 +15407,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>9.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15425,14 +15450,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15445,7 +15470,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15482,14 +15507,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15502,7 +15527,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15539,14 +15564,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15559,7 +15584,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15596,14 +15621,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>44916</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15615,8 +15640,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15653,14 +15683,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>44767</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15673,7 +15703,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15710,14 +15740,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15729,13 +15759,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15772,14 +15797,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45097</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15791,13 +15816,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15834,14 +15854,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>44468</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15853,13 +15873,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15896,14 +15911,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>44955</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15915,13 +15930,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>14.7</v>
+        <v>2.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15958,14 +15968,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15978,7 +15988,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16015,14 +16025,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16035,7 +16045,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16072,14 +16082,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45016</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16092,7 +16102,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16129,14 +16139,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16149,7 +16159,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16186,14 +16196,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16205,8 +16215,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16243,14 +16258,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16263,7 +16278,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16300,14 +16315,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16319,13 +16334,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16362,14 +16372,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16381,13 +16391,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16424,14 +16429,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16444,7 +16449,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16481,14 +16486,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16506,7 +16511,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16543,14 +16548,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16568,7 +16573,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16605,14 +16610,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16624,13 +16629,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16667,14 +16667,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>45017</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16729,14 +16729,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45017</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16791,14 +16791,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.9</v>
+        <v>14.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16853,14 +16853,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>44978</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16910,14 +16910,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -16972,14 +16972,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16991,8 +16991,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17029,14 +17034,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17049,7 +17054,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17086,14 +17091,14 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17105,13 +17110,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,14 +864,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 52544-2025</t>
+          <t>A 18959-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45954.55127314815</v>
+        <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -883,23 +883,18 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -913,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -923,136 +918,141 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
+          <t>Brunpudrad nållav
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 18959-2021 artfynd.xlsx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 18959-2021 karta.png", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 18959-2021 FSC-klagomål.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 18959-2021 FSC-klagomål mail.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 18959-2021 tillsynsbegäran.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 18959-2021 tillsynsbegäran mail.docx", "A 18959-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 52544-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45954.55127314815</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>Grönsiska
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52544-2025 artfynd.xlsx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52544-2025 karta.png", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52544-2025 FSC-klagomål.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52544-2025 FSC-klagomål mail.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52544-2025 tillsynsbegäran.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52544-2025 tillsynsbegäran mail.docx", "A 52544-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52544-2025 prioriterade fågelarter.docx", "A 52544-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 18959-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44308</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Brunpudrad nållav
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 18959-2021 artfynd.xlsx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 18959-2021 karta.png", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 18959-2021 FSC-klagomål.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 18959-2021 FSC-klagomål mail.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 18959-2021 tillsynsbegäran.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 18959-2021 tillsynsbegäran mail.docx", "A 18959-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 52540-2025</t>
+          <t>A 56472-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45954.54748842592</v>
+        <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1064,13 +1064,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1104,223 +1099,228 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 52540-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45954.54748842592</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 52540-2025 artfynd.xlsx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 52540-2025 karta.png", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 52540-2025 FSC-klagomål.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 52540-2025 FSC-klagomål mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 52540-2025 tillsynsbegäran.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 52540-2025 tillsynsbegäran mail.docx", "A 52540-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/fåglar/A 52540-2025 prioriterade fågelarter.docx", "A 52540-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 37936-2021</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44403</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>6.2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 56472-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45625.46011574074</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18630-2021</t>
+          <t>A 44576-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44306</v>
+        <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 44576-2022</t>
+          <t>A 18630-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44840.49480324074</v>
+        <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1551,14 +1551,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64155-2021</t>
+          <t>A 40770-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44510</v>
+        <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1570,13 +1570,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1613,14 +1608,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 40770-2022</t>
+          <t>A 64155-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44824</v>
+        <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1632,8 +1627,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2959,14 +2959,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63330-2021</t>
+          <t>A 66902-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44508.46548611111</v>
+        <v>44522</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3016,14 +3016,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 66902-2021</t>
+          <t>A 43255-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44522</v>
+        <v>44432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3073,14 +3073,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43255-2021</t>
+          <t>A 63330-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44432</v>
+        <v>44508.46548611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45322</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44743</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44300</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45267</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3548,13 +3548,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3591,14 +3586,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,7 +3606,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3648,14 +3643,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3668,7 +3663,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3705,14 +3700,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3725,7 +3720,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3782,7 +3777,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>44300</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3876,14 +3871,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45267</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3901,7 +3896,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3938,14 +3933,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44314</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3959,11 +3954,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4000,14 +3995,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>44743</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4020,7 +4015,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4057,14 +4052,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>45710</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4076,13 +4071,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4119,14 +4109,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4144,7 +4134,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4181,14 +4171,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45017</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4200,8 +4190,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4238,14 +4233,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4258,7 +4253,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4295,14 +4290,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4314,8 +4309,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4352,14 +4352,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4409,14 +4409,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45016</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4466,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>45714.513125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4485,13 +4485,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4528,14 +4523,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4553,7 +4548,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4590,14 +4585,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4609,13 +4604,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4652,14 +4642,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4671,13 +4661,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4714,14 +4699,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4739,7 +4724,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4776,14 +4761,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45758</v>
+        <v>44767</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4795,13 +4780,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4838,14 +4818,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4863,7 +4843,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4900,14 +4880,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 10047-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45364</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4919,8 +4899,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4957,14 +4942,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4977,7 +4962,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5014,14 +4999,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5034,7 +5019,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5071,14 +5056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45775</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5090,13 +5075,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5133,14 +5113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>44865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5152,13 +5132,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5195,14 +5170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5214,8 +5189,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5252,14 +5232,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45890</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5272,7 +5252,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5309,14 +5289,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45775</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5328,13 +5308,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5371,14 +5346,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45890</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5391,7 +5366,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5428,14 +5403,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5453,7 +5428,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5490,14 +5465,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45891.404375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5510,7 +5485,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5554,7 +5529,7 @@
         <v>45862.48434027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5609,14 +5584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5628,8 +5603,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5666,14 +5646,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5686,7 +5666,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5723,14 +5703,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5742,8 +5722,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5780,14 +5765,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5800,7 +5785,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5837,14 +5822,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5857,7 +5842,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5894,14 +5879,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5913,13 +5898,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5956,14 +5936,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5976,7 +5956,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>21.3</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6013,14 +5993,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6033,7 +6013,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6070,14 +6050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6095,7 +6075,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6132,14 +6112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6151,8 +6131,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6189,14 +6174,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>44587</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6209,7 +6194,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6246,14 +6231,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6266,7 +6251,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6303,14 +6288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6322,8 +6307,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6360,14 +6350,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6380,7 +6370,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6417,14 +6407,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6437,7 +6427,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6474,14 +6464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6494,7 +6484,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6531,14 +6521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6550,13 +6540,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6593,14 +6578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6612,13 +6597,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6655,14 +6635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6680,7 +6660,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6717,14 +6697,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6736,13 +6716,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6779,14 +6754,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6798,13 +6773,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6841,14 +6811,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45611</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6861,7 +6831,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6898,14 +6868,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6917,8 +6887,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6955,14 +6930,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45958</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6975,7 +6950,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7012,14 +6987,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7032,7 +7007,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7069,14 +7044,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7088,13 +7063,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7101,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7151,7 +7121,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7188,14 +7158,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,7 +7178,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7245,14 +7215,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 35894-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>45862.48116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7264,8 +7234,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7302,14 +7277,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25761-2025</t>
+          <t>A 35909-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45804.33686342592</v>
+        <v>45862.5112037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7327,7 +7302,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7364,14 +7339,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 35899-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>45862.48950231481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7383,8 +7358,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7421,14 +7401,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45708</v>
+        <v>45322</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7441,7 +7421,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7478,14 +7458,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45708</v>
+        <v>45670</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,7 +7478,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7535,14 +7515,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7554,8 +7534,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>9</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7592,14 +7577,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45233</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7611,8 +7596,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>7.4</v>
+        <v>0.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7649,14 +7639,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7669,7 +7659,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7706,14 +7696,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7726,7 +7716,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7763,14 +7753,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7773,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7820,14 +7810,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>44978</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7839,13 +7829,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7882,14 +7867,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 36895-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>45874</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7887,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7939,14 +7924,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7959,7 +7944,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7996,14 +7981,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,13 +8000,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8058,14 +8038,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8078,7 +8058,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8115,14 +8095,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8135,7 +8115,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8172,14 +8152,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8191,13 +8171,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8234,14 +8209,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8254,7 +8229,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8291,14 +8266,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8310,13 +8285,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8353,14 +8323,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8373,7 +8343,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8410,14 +8380,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8431,11 +8401,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8472,14 +8442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8493,11 +8463,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8534,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8553,13 +8523,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8596,14 +8561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45775</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8621,7 +8586,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8658,14 +8623,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45775</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8677,8 +8642,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8715,14 +8685,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45587</v>
+        <v>45058</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8735,7 +8705,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8772,14 +8742,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8792,7 +8762,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8829,14 +8799,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>45708</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8849,7 +8819,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8886,14 +8856,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8906,7 +8876,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8943,14 +8913,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8963,7 +8933,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9000,14 +8970,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45587</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9019,8 +8989,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9057,14 +9032,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9076,13 +9051,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9119,14 +9089,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9139,7 +9109,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9176,14 +9146,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9195,13 +9165,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9238,14 +9203,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9258,7 +9223,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9295,14 +9260,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9315,7 +9280,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9352,14 +9317,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9371,13 +9336,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9414,14 +9374,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9435,11 +9395,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9476,14 +9436,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>44314</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9495,8 +9455,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9533,14 +9498,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9552,13 +9517,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9595,14 +9555,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9614,13 +9574,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9657,14 +9612,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9682,7 +9637,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9719,14 +9674,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9739,7 +9694,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9776,14 +9731,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9795,8 +9750,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9833,14 +9793,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9852,8 +9812,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9890,14 +9855,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9909,8 +9874,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9947,14 +9917,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9966,8 +9936,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10004,14 +9979,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10023,8 +9998,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10061,14 +10041,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45874</v>
+        <v>45322</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10081,7 +10061,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10118,14 +10098,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10138,7 +10118,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10175,14 +10155,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45364</v>
+        <v>45958</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10194,13 +10174,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10237,14 +10212,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>44867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10257,7 +10232,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10294,14 +10269,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45708</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10314,7 +10289,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10351,14 +10326,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10371,7 +10346,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>10.9</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10408,14 +10383,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>45587</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10428,7 +10403,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10465,14 +10440,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10484,13 +10459,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10527,14 +10497,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45714.513125</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10547,7 +10517,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10584,14 +10554,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10603,13 +10573,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10646,14 +10611,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10666,7 +10631,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>9.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10703,14 +10668,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10722,8 +10687,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10760,14 +10730,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10779,8 +10749,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10817,14 +10792,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45710</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10837,7 +10812,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10874,14 +10849,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10894,7 +10869,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10931,14 +10906,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10950,13 +10925,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10993,14 +10963,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11018,7 +10988,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11055,14 +11025,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11074,13 +11044,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11117,14 +11082,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45070</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11138,11 +11103,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>14.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11179,14 +11144,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11198,8 +11163,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11236,14 +11206,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11256,7 +11226,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11293,14 +11263,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>44468</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11312,13 +11282,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11355,14 +11320,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11374,8 +11339,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11412,14 +11382,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44867</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11432,7 +11402,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11469,14 +11439,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>45202</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11489,7 +11459,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11526,14 +11496,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45058</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11546,7 +11516,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11583,14 +11553,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11603,7 +11573,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11640,14 +11610,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11665,7 +11635,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11702,14 +11672,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11722,7 +11692,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11759,14 +11729,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11784,7 +11754,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11821,14 +11791,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11840,13 +11810,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11883,14 +11848,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11903,7 +11868,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11940,14 +11905,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45587</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11959,8 +11924,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>5.5</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11997,14 +11967,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 8438-2026</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46065.39539351852</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12016,13 +11986,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>4.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12059,14 +12024,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44865</v>
+        <v>45097</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12079,7 +12044,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12116,14 +12081,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>44955</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12135,13 +12100,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12178,14 +12138,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45139</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12235,14 +12195,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12255,7 +12215,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12292,14 +12252,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12311,8 +12271,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12349,14 +12314,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12369,7 +12334,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12406,14 +12371,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12425,8 +12390,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12463,14 +12433,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12482,8 +12452,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12520,14 +12495,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12539,8 +12514,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12577,14 +12557,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45567</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12596,13 +12576,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12639,14 +12614,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44589</v>
+        <v>44798</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12659,7 +12634,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12696,14 +12671,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12716,7 +12691,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12753,14 +12728,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45058</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12773,7 +12748,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12810,14 +12785,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45126</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12830,7 +12805,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12867,14 +12842,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12887,7 +12862,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12924,14 +12899,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45670</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12944,7 +12919,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12981,14 +12956,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13002,11 +12977,11 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13043,14 +13018,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 8438-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>46065.39539351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13062,8 +13037,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13100,14 +13080,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13119,8 +13099,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13157,14 +13142,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13176,8 +13161,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13214,14 +13204,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44587</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13233,8 +13223,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13271,14 +13266,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13290,8 +13285,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13328,14 +13328,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13385,14 +13385,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13442,14 +13442,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13499,14 +13499,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13518,8 +13518,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13556,14 +13561,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45058</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13576,7 +13581,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13613,14 +13618,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45587</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13633,7 +13638,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13670,14 +13675,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13695,7 +13700,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13732,14 +13737,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13752,7 +13757,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13789,14 +13794,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13808,13 +13813,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13851,14 +13851,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13870,13 +13870,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>14.7</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13913,14 +13908,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13934,11 +13929,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13975,14 +13970,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45202</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13995,7 +13990,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14032,14 +14027,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45215</v>
+        <v>44589</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14051,13 +14046,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14094,14 +14084,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>44916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14113,8 +14103,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14151,14 +14146,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44708</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14166,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>9.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14208,14 +14203,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14223,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14265,14 +14260,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>45139</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14284,13 +14279,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14327,14 +14317,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14347,7 +14337,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14384,14 +14374,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14404,7 +14394,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14441,14 +14431,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14460,8 +14450,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14498,14 +14493,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14518,7 +14513,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14555,14 +14550,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>45070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14574,8 +14569,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14612,14 +14612,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14631,13 +14631,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14674,14 +14669,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45233</v>
+        <v>45567</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14699,7 +14694,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14736,14 +14731,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45322</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14756,7 +14751,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14793,14 +14788,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>44708</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14812,13 +14807,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>6.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14855,14 +14845,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14874,13 +14864,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14917,14 +14902,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14936,13 +14921,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14979,14 +14959,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14998,13 +14978,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15048,7 +15023,7 @@
         <v>44818.32547453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15098,14 +15073,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15118,7 +15093,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15155,14 +15130,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15180,7 +15155,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15217,14 +15192,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44798</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15236,8 +15211,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15274,14 +15254,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15293,8 +15273,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15331,14 +15316,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15350,8 +15335,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>1.4</v>
+        <v>14.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15388,14 +15378,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15407,13 +15397,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15450,14 +15435,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15470,7 +15455,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15514,7 +15499,7 @@
         <v>44536.47980324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15564,14 +15549,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15584,7 +15569,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15621,14 +15606,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44916</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15640,13 +15625,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15683,14 +15663,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44767</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15703,7 +15683,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15740,14 +15720,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15759,8 +15739,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15797,14 +15782,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45097</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15816,8 +15801,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15854,14 +15844,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44468</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15874,7 +15864,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15911,14 +15901,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44955</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15930,8 +15920,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15968,14 +15963,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15987,8 +15982,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16025,14 +16025,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16044,8 +16044,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16082,14 +16087,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45016</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16101,8 +16106,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16139,14 +16149,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16158,8 +16168,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16196,14 +16211,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16221,7 +16236,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16258,14 +16273,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16278,7 +16293,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16315,14 +16330,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16334,8 +16349,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16372,14 +16392,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16429,14 +16449,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16449,7 +16469,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16486,14 +16506,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16507,11 +16527,11 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16548,14 +16568,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16567,13 +16587,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16610,14 +16625,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16630,7 +16645,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16667,14 +16682,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45017</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16688,11 +16703,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16729,14 +16744,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45017</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16748,13 +16763,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>0.3</v>
+        <v>21.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16791,14 +16801,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16810,13 +16820,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>14.7</v>
+        <v>1.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16853,14 +16858,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44978</v>
+        <v>45611</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16873,7 +16878,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16910,14 +16915,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16929,13 +16934,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16972,14 +16972,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>45708</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16991,13 +16991,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17034,14 +17029,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45708</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17054,7 +17049,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17091,14 +17086,14 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17110,8 +17105,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44522</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44529.46170138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44936.63445601852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45459.32884259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45113.48390046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44300</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45267</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45637.7069212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44743</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45710</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45017</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44846.52234953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45016</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45714.513125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45686.73145833334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44973.68270833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45037.63707175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45777.32631944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44767</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45775.55267361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45364</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45820.47526620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44693.50209490741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45825.48642361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45777.32086805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45401.32819444445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45891.62295138889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45890</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45777.32327546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45891.404375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>45862.48434027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45777.32241898148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45107.48325231481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45862.48601851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45893.72087962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45831.61278935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45831.34858796297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45831.35900462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45726.46789351852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44830.35543981481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>45862.49270833333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44587</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44910.63780092593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45839.36814814815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45036.43976851852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45772.40309027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45436.32832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45281.5508449074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45013.53026620371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45761.69005787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>44550.48967592593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45111.48731481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45912.58181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45679.49787037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45225.51216435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45219.41258101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45918.51385416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45918.50550925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45625.45383101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45862.48116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45862.5112037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45862.48950231481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>45322</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>45670</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>45670.39853009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45233</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45926.45581018519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45219.40690972222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45931.59833333334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44978</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45874</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45931.59982638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44896.66025462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45625.46210648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45934.87306712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45934.89519675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>45288.54592592592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45883.46482638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45883.45405092592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45757.77708333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>45938.54045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>45775</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45775</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45058</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>45756.42564814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>45708</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>44741.58899305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45594.66606481482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45371.73100694444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45671.63806712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45671.64002314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45950.62329861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45219.38962962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45952.60922453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44918.41686342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44314</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>45952.60530092593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45741.70509259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45761.68358796297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45684.69141203703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45954.54431712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45954.53825231481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45954.53956018519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45954.55186342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45954.54306712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45322</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45958.44938657407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45958</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45960.35961805555</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45960.41381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45587</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45747.8646875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>44349.5987962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45327.54628472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>45938.53597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45327.51895833333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>45215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45551.50974537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45036.50671296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>45173.41140046297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>45954.54627314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45729.38393518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45761.67469907407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>45761.69201388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>45427.55083333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44468</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>45637.70924768518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>45756.42202546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>45202</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>45520.62033564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44403.67659722222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45775.47883101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45699.28684027777</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45477.73711805556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>46044.90097222223</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>46002.42930555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>46002.43211805556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>46044.89229166666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45097</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44955</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45741.70359953704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45493.63009259259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>46008.55391203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>45456.73114583334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>45282.50063657408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45757.77603009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44830.34797453704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45161.55212962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44798</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44369.35200231482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45058</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45737.41412037037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45474.35745370371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45253.43135416666</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44586.61754629629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>46065.39539351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45761.68552083334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45761.68600694444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45761.69388888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45299.74146990741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44307.41773148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45667.28696759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45579.50758101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>46030.60766203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>45587</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44509.69895833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45772.40685185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>46030.60380787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44818.62685185186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45376.38177083333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45398.68222222223</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44589</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45755.30775462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>45320.86557870371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>45139</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45063.56233796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44664.45688657407</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45775.55607638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44814.81546296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44893.46648148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45567</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45757.35355324074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44708</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45540.60707175926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44741.41038194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45567.70056712963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44818.32547453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45772.65694444445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45775.48229166667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45775.48774305556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45761.68496527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45761.67996527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44643.59888888889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45223.62657407407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44536.47980324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536.48008101852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45610.56901620371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45677.47734953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44916.62188657407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44916.63834490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>45035.58962962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45777.3215625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45776.44914351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45777.32519675926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45777.32569444444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45777.32798611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45777.35261574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45607.69770833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45777.32888888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>45560.5765625</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45646.46565972222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>45784.59821759259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45784.5059837963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45544.54753472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45688.45554398148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45484.54526620371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45720.63288194445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45611</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44375.45909722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45708</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45708</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45804.33686342592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>45625.46011574074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44824</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>44518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>44637.90193287037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>44425.44082175926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44865</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>44281.336875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44846.67265046296</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44846.66394675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44371.50600694444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>44348.55476851852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44425.45453703704</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44425.44458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>44842.46762731481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44491</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44449.46109953704</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>44529.46652777777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>44425.44590277778</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44522</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44432</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>44508.46548611111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>44446.46452546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>45518.60223379629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>45625.4474537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45625.45034722222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45625.45663194444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44529.46170138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44936.63445601852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45459.32884259259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45113.48390046296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44300</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>45267</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45637.7069212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44743</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>45710</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>45017</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>45017</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>45568.69032407407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>45665.61208333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44846.52234953704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>45016</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45714.513125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>45686.73145833334</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44973.68270833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45037.63707175926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45777.32631944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44767</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45775.55267361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>45364</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45820.47526620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>44693.50209490741</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>45825.48642361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44865</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45777.32086805555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>45401.32819444445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>45891.62295138889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>45890</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45777.32327546296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45891.404375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>45862.48434027778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>45777.32241898148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>45107.48325231481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45862.48601851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         <v>45893.72087962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>45831.61278935185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>45831.34858796297</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>45831.35900462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         <v>45726.46789351852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>44830.35543981481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>45862.49270833333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44587</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44910.63780092593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>45839.36814814815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45036.43976851852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45772.40309027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45436.32832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45281.5508449074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45013.53026620371</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45761.69005787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>44550.48967592593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45111.48731481482</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45912.58181712963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45679.49787037037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45225.51216435185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45219.41258101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45918.51385416667</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45918.50550925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>45625.45383101852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45862.48116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45862.5112037037</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>45862.48950231481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>45322</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>45670</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>45670.39853009259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>45233</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>45926.45581018519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>45219.40690972222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>45931.59833333334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44978</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>45874</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>45931.59982638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44896.66025462963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>45625.46210648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>45934.87306712963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>45934.89519675926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>45288.54592592592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>45883.46482638889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>45883.45405092592</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>45758</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45757.77708333333</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>45938.54045138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>45775</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45775</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>45058</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>45756.42564814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         <v>45708</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8863,7 +8863,7 @@
         <v>44741.58899305556</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45594.66606481482</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>45371.73100694444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>45587</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>45671.63806712963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>45671.64002314815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>45950.62329861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>45219.38962962963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>45952.60922453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44918.41686342593</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         <v>44314</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>45952.60530092593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45741.70509259259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45761.68358796297</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45684.69141203703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45954.54431712963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45954.53825231481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>45954.53956018519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45954.55186342593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>45954.54306712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45322</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45958.44938657407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         <v>45958</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         <v>44867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         <v>45960.35961805555</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>45960.41381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>45587</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>45747.8646875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>44349.5987962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45327.54628472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>45938.53597222222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>45327.51895833333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>45215</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>45551.50974537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>45036.50671296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>45173.41140046297</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>45954.54627314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>45729.38393518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>45761.67469907407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>45761.69201388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>45427.55083333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44468</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>45637.70924768518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>45756.42202546296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>45202</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>45520.62033564815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44403.67659722222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>45775.47883101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45699.28684027777</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45477.73711805556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>46044.90097222223</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>46002.42930555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>46002.43211805556</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>46044.89229166666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>45097</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>44955</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45741.70359953704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45493.63009259259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>46008.55391203704</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
         <v>45456.73114583334</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12378,7 +12378,7 @@
         <v>45282.50063657408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>45757.77603009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44830.34797453704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>45161.55212962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44798</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>44369.35200231482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>45058</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12792,7 +12792,7 @@
         <v>45737.41412037037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12849,7 +12849,7 @@
         <v>45474.35745370371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12906,7 +12906,7 @@
         <v>45253.43135416666</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>44586.61754629629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>46065.39539351852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45761.68552083334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45761.68600694444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45761.69388888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45299.74146990741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44307.41773148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45667.28696759259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45126</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45579.50758101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>46030.60766203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>45587</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>44509.69895833333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45772.40685185185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>46030.60380787037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44818.62685185186</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45376.38177083333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>45398.68222222223</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44589</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44916</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>45755.30775462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>45320.86557870371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>45139</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>45063.56233796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44664.45688657407</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>45775.55607638889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44814.81546296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44893.46648148148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14676,7 +14676,7 @@
         <v>45567</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>45757.35355324074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44708</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>45540.60707175926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44741.41038194444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14966,7 +14966,7 @@
         <v>45567.70056712963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15023,7 +15023,7 @@
         <v>44818.32547453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45772.65694444445</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45775.48229166667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>45775.48774305556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>45761.68496527777</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45761.67996527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44643.59888888889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45223.62657407407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44536.47980324074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536.48008101852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45610.56901620371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45677.47734953704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44916.62188657407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44916.63834490741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>45035.58962962963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>45777.3215625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>45776.44914351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45777.32519675926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45777.32569444444</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45777.32798611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45777.35261574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>45607.69770833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>45777.32888888889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>45560.5765625</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>45646.46565972222</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>45784.59821759259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45784.5059837963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45544.54753472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45688.45554398148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>45484.54526620371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16808,7 +16808,7 @@
         <v>45720.63288194445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>45611</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44375.45909722222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>45708</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>45708</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>45804.33686342592</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>

--- a/Översikt LESSEBO.xlsx
+++ b/Översikt LESSEBO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z279"/>
+  <dimension ref="A1:Z282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44308</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45954.54986111111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45954.54858796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>45954.55127314815</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56472-2024</t>
+          <t>A 37936-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45625.46011574074</v>
+        <v>44403</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1089,41 +1089,45 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
         <v/>
       </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
+        <v/>
+      </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
         <v/>
       </c>
     </row>
@@ -1137,7 +1141,7 @@
         <v>45954.54748842592</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,14 +1228,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 37936-2021</t>
+          <t>A 56472-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44403</v>
+        <v>45625.46011574074</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1244,7 +1248,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1256,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1268,45 +1272,41 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 37936-2021 artfynd.xlsx", "A 37936-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/artfynd/A 56472-2024 artfynd.xlsx", "A 56472-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 37936-2021 karta.png", "A 37936-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/kartor/A 56472-2024 karta.png", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/knärot/A 37936-2021 karta knärot.png", "A 37936-2021")</f>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 56472-2024 FSC-klagomål.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomål/A 37936-2021 FSC-klagomål.docx", "A 37936-2021")</f>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 56472-2024 FSC-klagomål mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/klagomålsmail/A 37936-2021 FSC-klagomål mail.docx", "A 37936-2021")</f>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 56472-2024 tillsynsbegäran.docx", "A 56472-2024")</f>
         <v/>
       </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsyn/A 37936-2021 tillsynsbegäran.docx", "A 37936-2021")</f>
-        <v/>
-      </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 37936-2021 tillsynsbegäran mail.docx", "A 37936-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0761/tillsynsmail/A 56472-2024 tillsynsbegäran mail.docx", "A 56472-2024")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>44840.49480324074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44306</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44327.46094907408</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44327.4812037037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1551,14 +1551,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40770-2022</t>
+          <t>A 41611-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44824</v>
+        <v>44425.44082175926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1570,8 +1570,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1615,7 +1620,7 @@
         <v>44510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1670,14 +1675,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 66390-2021</t>
+          <t>A 12378-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44518</v>
+        <v>44637.90193287037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1690,7 +1695,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1727,14 +1732,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 12378-2022</t>
+          <t>A 66390-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44637.90193287037</v>
+        <v>44518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1747,7 +1752,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1784,14 +1789,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 41611-2021</t>
+          <t>A 40770-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44425.44082175926</v>
+        <v>44824</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1803,13 +1808,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1846,14 +1846,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 49921-2022</t>
+          <t>A 45963-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44865</v>
+        <v>44846.67265046296</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1903,14 +1903,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 14893-2021</t>
+          <t>A 49921-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44281.336875</v>
+        <v>44865</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1960,14 +1960,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 45963-2022</t>
+          <t>A 45956-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44846.67265046296</v>
+        <v>44846.66394675926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2017,14 +2017,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45956-2022</t>
+          <t>A 3741-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44846.66394675926</v>
+        <v>44586</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2036,8 +2036,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2081,7 +2086,7 @@
         <v>44727.67484953703</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2131,14 +2136,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3741-2022</t>
+          <t>A 32291-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44586</v>
+        <v>44371.50600694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2152,11 +2157,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2200,7 +2205,7 @@
         <v>44510</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2250,14 +2255,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 32291-2021</t>
+          <t>A 26564-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44371.50600694444</v>
+        <v>44348.55476851852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2269,13 +2274,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2312,14 +2312,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 26564-2021</t>
+          <t>A 41626-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44348.55476851852</v>
+        <v>44425.45453703704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2331,8 +2331,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2369,14 +2374,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41626-2021</t>
+          <t>A 41617-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44425.45453703704</v>
+        <v>44425.44458333333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2399,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2438,7 +2443,7 @@
         <v>44588.60006944444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2488,14 +2493,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41617-2021</t>
+          <t>A 14893-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44425.44458333333</v>
+        <v>44281.336875</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2507,13 +2512,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2550,14 +2550,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45095-2022</t>
+          <t>A 41619-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44842.46762731481</v>
+        <v>44425.44590277778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2612,14 +2612,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59408-2021</t>
+          <t>A 68513-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44491</v>
+        <v>44529.46652777777</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2669,14 +2669,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 48116-2021</t>
+          <t>A 45095-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44449.46109953704</v>
+        <v>44842.46762731481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2688,8 +2688,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2726,14 +2731,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 68513-2021</t>
+          <t>A 59408-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44529.46652777777</v>
+        <v>44491</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2746,7 +2751,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2783,14 +2788,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41619-2021</t>
+          <t>A 48116-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44425.44590277778</v>
+        <v>44449.46109953704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2802,13 +2807,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>44693.49518518519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>44348</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2959,14 +2959,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 66902-2021</t>
+          <t>A 63330-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44522</v>
+        <v>44508.46548611111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3016,14 +3016,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43255-2021</t>
+          <t>A 46909-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44432</v>
+        <v>44446.46452546296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3073,14 +3073,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 63330-2021</t>
+          <t>A 66902-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44508.46548611111</v>
+        <v>44522</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>44743</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3187,14 +3187,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46909-2021</t>
+          <t>A 43255-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44446.46452546296</v>
+        <v>44432</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>44460.88979166667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44348.5505787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3358,14 +3358,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 33240-2024</t>
+          <t>A 59173-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45518.60223379629</v>
+        <v>45253.43135416666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3415,14 +3415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56456-2024</t>
+          <t>A 33240-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45625.4474537037</v>
+        <v>45518.60223379629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3472,14 +3472,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56459-2024</t>
+          <t>A 27713-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45625.45034722222</v>
+        <v>44743</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3529,14 +3529,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56471-2024</t>
+          <t>A 3876-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45625.45663194444</v>
+        <v>45322</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3586,14 +3586,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 68507-2021</t>
+          <t>A 17702-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44529.46170138889</v>
+        <v>44300</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3643,14 +3643,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 1367-2023</t>
+          <t>A 62152-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44936.63445601852</v>
+        <v>45267</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3662,8 +3662,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3700,14 +3705,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24478-2024</t>
+          <t>A 27080-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45459.32884259259</v>
+        <v>44741.41038194444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3725,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3757,14 +3762,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30966-2023</t>
+          <t>A 39389-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45113.48390046296</v>
+        <v>45551.50974537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3782,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3814,14 +3819,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17702-2021</t>
+          <t>A 60358-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44300</v>
+        <v>44910.63780092593</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3839,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3871,14 +3876,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 62152-2023</t>
+          <t>A 51191-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45267</v>
+        <v>45219.41258101852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3890,13 +3895,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3933,14 +3933,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59320-2024</t>
+          <t>A 52525-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45637.7069212963</v>
+        <v>45225.51216435185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3952,13 +3952,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3995,14 +3990,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27713-2022</t>
+          <t>A 17517-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44743</v>
+        <v>45036.43976851852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4015,7 +4010,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4052,14 +4047,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8655-2025</t>
+          <t>A 11843-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45710</v>
+        <v>45376.38177083333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4071,8 +4066,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4109,14 +4109,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15203-2023</t>
+          <t>A 20178-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45017</v>
+        <v>44314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4171,14 +4171,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15204-2023</t>
+          <t>A 1367-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45017</v>
+        <v>44936.63445601852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4190,13 +4190,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4233,14 +4228,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43453-2024</t>
+          <t>A 20480-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45568.69032407407</v>
+        <v>45775.55607638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4252,8 +4247,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4290,14 +4290,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 859-2025</t>
+          <t>A 61575-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45665.61208333333</v>
+        <v>44916.62188657407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4311,11 +4311,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4352,14 +4352,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45838-2022</t>
+          <t>A 61588-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44846.52234953704</v>
+        <v>44916.63834490741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4371,8 +4371,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4409,14 +4414,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15180-2023</t>
+          <t>A 4107-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45016</v>
+        <v>45684.69141203703</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4429,7 +4434,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4466,14 +4471,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9216-2025</t>
+          <t>A 51189-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45714.513125</v>
+        <v>45219.40690972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4486,7 +4491,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4523,14 +4528,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4504-2025</t>
+          <t>A 43453-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45686.73145833334</v>
+        <v>45568.69032407407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4542,13 +4547,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4585,14 +4585,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7957-2023</t>
+          <t>A 18729-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44973.68270833333</v>
+        <v>44307.41773148148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17836-2023</t>
+          <t>A 47396-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45037.63707175926</v>
+        <v>45587</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4699,14 +4699,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20857-2025</t>
+          <t>A 7957-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45777.32631944444</v>
+        <v>44973.68270833333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4718,13 +4718,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4761,14 +4756,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 30914-2022</t>
+          <t>A 18202-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44767</v>
+        <v>45761.68358796297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4780,8 +4775,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4818,14 +4818,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20478-2025</t>
+          <t>A 31425-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45775.55267361111</v>
+        <v>44369.35200231482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4837,13 +4837,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4880,14 +4875,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10047-2024</t>
+          <t>A 41900-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45364</v>
+        <v>44830.34797453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4901,11 +4896,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4942,14 +4937,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28794-2025</t>
+          <t>A 22432-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45820.47526620371</v>
+        <v>45070</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4961,8 +4956,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4999,14 +4999,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19501-2022</t>
+          <t>A 37933-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44693.50209490741</v>
+        <v>44403.67659722222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.3</v>
+        <v>10.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5056,14 +5056,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 29659-2025</t>
+          <t>A 47386-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45825.48642361111</v>
+        <v>45587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5113,14 +5113,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50154-2022</t>
+          <t>A 17552-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44865</v>
+        <v>45036.50671296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5170,14 +5170,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20851-2025</t>
+          <t>A 13751-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45777.32086805555</v>
+        <v>45737.41412037037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5189,13 +5189,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5232,14 +5227,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 15399-2024</t>
+          <t>A 9216-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45401.32819444445</v>
+        <v>45714.513125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5252,7 +5247,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5289,14 +5284,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39884-2025</t>
+          <t>A 37399-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45891.62295138889</v>
+        <v>45540.60707175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5309,7 +5304,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5346,14 +5341,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39549-2025</t>
+          <t>A 63927-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45890</v>
+        <v>44509.69895833333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5365,8 +5360,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5403,14 +5403,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20854-2025</t>
+          <t>A 24171-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45777.32327546296</v>
+        <v>45456.73114583334</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5422,13 +5422,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5465,14 +5460,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39750-2025</t>
+          <t>A 20431-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45891.404375</v>
+        <v>45775.47883101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5484,8 +5479,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5522,14 +5522,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35896-2025</t>
+          <t>A 24478-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45862.48434027778</v>
+        <v>45459.32884259259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5541,13 +5541,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5584,14 +5579,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20853-2025</t>
+          <t>A 30405-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45777.32241898148</v>
+        <v>45111.48731481482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5603,13 +5598,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5646,14 +5636,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29767-2023</t>
+          <t>A 51175-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45107.48325231481</v>
+        <v>45219.38962962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5666,7 +5656,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5703,14 +5693,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35897-2025</t>
+          <t>A 20223-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45862.48601851852</v>
+        <v>45772.65694444445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5722,13 +5712,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5765,14 +5750,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39979-2025</t>
+          <t>A 8655-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45893.72087962963</v>
+        <v>45710</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5785,7 +5770,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5822,14 +5807,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30771-2025</t>
+          <t>A 20056-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45831.61278935185</v>
+        <v>45772.40685185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5879,14 +5864,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30522-2025</t>
+          <t>A 64865-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45831.34858796297</v>
+        <v>45282.50063657408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5898,8 +5883,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5936,14 +5926,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30527-2025</t>
+          <t>A 34386-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45831.35900462963</v>
+        <v>45139</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5956,7 +5946,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5993,14 +5983,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11322-2025</t>
+          <t>A 50892-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45726.46789351852</v>
+        <v>44867</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6013,7 +6003,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6050,14 +6040,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41905-2022</t>
+          <t>A 17350-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44830.35543981481</v>
+        <v>45035.58962962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6069,13 +6059,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6112,14 +6097,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35904-2025</t>
+          <t>A 16886-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45862.49270833333</v>
+        <v>45755.30775462963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6131,13 +6116,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6174,14 +6154,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3955-2022</t>
+          <t>A 14940-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44587</v>
+        <v>45398.68222222223</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6194,7 +6174,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6231,14 +6211,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60358-2022</t>
+          <t>A 45838-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44910.63780092593</v>
+        <v>44846.52234953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6251,7 +6231,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6288,14 +6268,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32712-2025</t>
+          <t>A 17836-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839.36814814815</v>
+        <v>45037.63707175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6307,13 +6287,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6350,14 +6325,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17517-2023</t>
+          <t>A 20824-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45036.43976851852</v>
+        <v>45058</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6370,7 +6345,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6407,14 +6382,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 20054-2025</t>
+          <t>A 28477-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45772.40309027778</v>
+        <v>45477.73711805556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6426,8 +6401,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6464,14 +6444,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20541-2024</t>
+          <t>A 30600-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45436.32832175926</v>
+        <v>45493.63009259259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6484,7 +6464,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6521,14 +6501,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 64635-2023</t>
+          <t>A 45671-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45281.5508449074</v>
+        <v>45579.50758101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6540,8 +6520,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6578,14 +6563,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14584-2023</t>
+          <t>A 64635-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45013.53026620371</v>
+        <v>45281.5508449074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6598,7 +6583,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6635,14 +6620,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 18209-2025</t>
+          <t>A 17610-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45761.69005787037</v>
+        <v>45757.77708333333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6660,7 +6645,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6697,14 +6682,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 73140-2021</t>
+          <t>A 14584-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44550.48967592593</v>
+        <v>45013.53026620371</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6717,7 +6702,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6754,14 +6739,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30405-2023</t>
+          <t>A 65137-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45111.48731481482</v>
+        <v>45288.54592592592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6774,7 +6759,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6811,14 +6796,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43809-2025</t>
+          <t>A 15864-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45912.58181712963</v>
+        <v>44664.45688657407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6831,7 +6816,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6868,14 +6853,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3239-2025</t>
+          <t>A 57519-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45679.49787037037</v>
+        <v>44896.66025462963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6887,13 +6872,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6930,14 +6910,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52525-2023</t>
+          <t>A 29767-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45225.51216435185</v>
+        <v>45107.48325231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6950,7 +6930,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6987,14 +6967,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51191-2023</t>
+          <t>A 19501-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45219.41258101852</v>
+        <v>44693.50209490741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7007,7 +6987,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7044,14 +7024,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44904-2025</t>
+          <t>A 642-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45918.51385416667</v>
+        <v>45299.74146990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7063,8 +7043,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7101,14 +7086,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44899-2025</t>
+          <t>A 18205-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45918.50550925926</v>
+        <v>45761.68496527777</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7120,8 +7105,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7158,14 +7148,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56467-2024</t>
+          <t>A 2755-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45625.45383101852</v>
+        <v>45677.47734953704</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7178,7 +7168,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7215,14 +7205,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35894-2025</t>
+          <t>A 43114-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45862.48116898148</v>
+        <v>45567</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7240,7 +7230,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7277,14 +7267,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35909-2025</t>
+          <t>A 21745-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45862.5112037037</v>
+        <v>44708</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7296,13 +7286,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7339,14 +7324,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35899-2025</t>
+          <t>A 20541-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45862.48950231481</v>
+        <v>45436.32832175926</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7358,13 +7343,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7401,14 +7381,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 3876-2024</t>
+          <t>A 4413-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45322</v>
+        <v>44589</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7421,7 +7401,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7458,14 +7438,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1488-2025</t>
+          <t>A 15590-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45670</v>
+        <v>45747.8646875</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7478,7 +7458,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7515,14 +7495,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1490-2025</t>
+          <t>A 39603-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45670.39853009259</v>
+        <v>44818.62685185186</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7534,13 +7514,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7577,14 +7552,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54541-2023</t>
+          <t>A 59321-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45233</v>
+        <v>45637.70924768518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7602,7 +7577,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7639,14 +7614,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46631-2025</t>
+          <t>A 27191-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45926.45581018519</v>
+        <v>44741.58899305556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7659,7 +7634,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7696,14 +7671,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51189-2023</t>
+          <t>A 6338-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45219.40690972222</v>
+        <v>45699.28684027777</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7716,7 +7691,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7753,14 +7728,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47693-2025</t>
+          <t>A 17403-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45931.59833333334</v>
+        <v>45757.35355324074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7773,7 +7748,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7810,14 +7785,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8690-2023</t>
+          <t>A 47402-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44978</v>
+        <v>45587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7830,7 +7805,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7867,14 +7842,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 36895-2025</t>
+          <t>A 4465-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45874</v>
+        <v>45327.54628472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7887,7 +7862,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7924,14 +7899,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47696-2025</t>
+          <t>A 17203-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45931.59982638889</v>
+        <v>45756.42202546296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7944,7 +7919,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7981,14 +7956,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 57519-2022</t>
+          <t>A 15399-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44896.66025462963</v>
+        <v>45401.32819444445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8001,7 +7976,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8038,14 +8013,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56475-2024</t>
+          <t>A 40912-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45625.46210648148</v>
+        <v>45173.41140046297</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8058,7 +8033,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8095,14 +8070,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48429-2025</t>
+          <t>A 33076-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45934.87306712963</v>
+        <v>45126</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8115,7 +8090,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8152,14 +8127,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48433-2025</t>
+          <t>A 70350-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45934.89519675926</v>
+        <v>44536.48008101852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8172,7 +8147,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8209,14 +8184,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 65137-2023</t>
+          <t>A 1488-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45288.54592592592</v>
+        <v>45670</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8229,7 +8204,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8266,14 +8241,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38303-2025</t>
+          <t>A 1490-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45883.46482638889</v>
+        <v>45670.39853009259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8285,8 +8260,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8323,14 +8303,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38296-2025</t>
+          <t>A 3239-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45883.45405092592</v>
+        <v>45679.49787037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8342,8 +8322,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8380,14 +8365,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17729-2025</t>
+          <t>A 14549-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45758</v>
+        <v>45741.70359953704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8399,13 +8384,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8442,14 +8422,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17610-2025</t>
+          <t>A 54541-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45757.77708333333</v>
+        <v>45233</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8447,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8484,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 49298-2025</t>
+          <t>A 27405-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45938.54045138889</v>
+        <v>45474.35745370371</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8524,7 +8504,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8561,14 +8541,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20485-2025</t>
+          <t>A 50154-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45775</v>
+        <v>44865</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8580,13 +8560,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8598,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 20443-2025</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45775</v>
+        <v>45708</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8642,13 +8617,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8685,14 +8655,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20824-2023</t>
+          <t>A 13036-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45058</v>
+        <v>44643.59888888889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8705,7 +8675,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8742,14 +8712,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 17204-2025</t>
+          <t>A 3875-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45756.42564814815</v>
+        <v>45322</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8762,7 +8732,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8799,14 +8769,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 8174-2025</t>
+          <t>A 38303-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45708</v>
+        <v>45883.46482638889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8819,7 +8789,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8856,14 +8826,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27191-2022</t>
+          <t>A 3955-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44741.58899305556</v>
+        <v>44587</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8876,7 +8846,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8913,14 +8883,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49121-2024</t>
+          <t>A 56456-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45594.66606481482</v>
+        <v>45625.4474537037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8933,7 +8903,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8970,14 +8940,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 11286-2024</t>
+          <t>A 56459-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45371.73100694444</v>
+        <v>45625.45034722222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8989,13 +8959,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9032,14 +8997,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 47396-2024</t>
+          <t>A 18206-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45587</v>
+        <v>45761.68552083334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9051,8 +9016,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9089,14 +9059,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1894-2025</t>
+          <t>A 18207-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45671.63806712963</v>
+        <v>45761.68600694444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9108,8 +9078,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9146,14 +9121,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1897-2025</t>
+          <t>A 18211-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45671.64002314815</v>
+        <v>45761.69388888889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9165,8 +9140,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9203,14 +9183,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51487-2025</t>
+          <t>A 1894-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45950.62329861111</v>
+        <v>45671.63806712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9223,7 +9203,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9260,14 +9240,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51175-2023</t>
+          <t>A 1897-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45219.38962962963</v>
+        <v>45671.64002314815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9280,7 +9260,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9317,14 +9297,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52031-2025</t>
+          <t>A 41905-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45952.60922453704</v>
+        <v>44830.35543981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9336,8 +9316,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9374,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61995-2022</t>
+          <t>A 18968-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44918.41686342593</v>
+        <v>45427.55083333333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9393,13 +9378,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9436,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20178-2021</t>
+          <t>A 56471-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44314</v>
+        <v>45625.45663194444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9455,13 +9435,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9498,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 52028-2025</t>
+          <t>A 20825-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45952.60530092593</v>
+        <v>45058</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9518,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9555,14 +9530,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 14551-2025</t>
+          <t>A 38296-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45741.70509259259</v>
+        <v>45883.45405092592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9575,7 +9550,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9612,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 18202-2025</t>
+          <t>A 12127-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45761.68358796297</v>
+        <v>45729.38393518519</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9631,13 +9606,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9674,14 +9644,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4107-2025</t>
+          <t>A 39436-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45684.69141203703</v>
+        <v>44818.32547453704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9694,7 +9664,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9731,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52537-2025</t>
+          <t>A 56529-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45954.54431712963</v>
+        <v>44893.46648148148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9750,13 +9720,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9793,14 +9758,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52531-2025</t>
+          <t>A 4504-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45954.53825231481</v>
+        <v>45686.73145833334</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9818,7 +9783,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9855,14 +9820,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 52532-2025</t>
+          <t>A 1169-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45954.53956018519</v>
+        <v>45667.28696759259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9874,13 +9839,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9917,14 +9877,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 52546-2025</t>
+          <t>A 17204-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45954.55186342593</v>
+        <v>45756.42564814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,13 +9896,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9979,14 +9934,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52534-2025</t>
+          <t>A 17609-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45954.54306712963</v>
+        <v>45757.77603009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10004,7 +9959,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10041,14 +9996,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3875-2024</t>
+          <t>A 11286-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45322</v>
+        <v>45371.73100694444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10060,8 +10015,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10098,14 +10058,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 53120-2025</t>
+          <t>A 35332-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45958.44938657407</v>
+        <v>44798</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10118,7 +10078,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10155,14 +10115,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53122-2025</t>
+          <t>A 11322-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45958</v>
+        <v>45726.46789351852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10175,7 +10135,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10212,14 +10172,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50892-2022</t>
+          <t>A 39549-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44867</v>
+        <v>45890</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10232,7 +10192,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10269,14 +10229,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53522-2025</t>
+          <t>A 38227-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45960.35961805555</v>
+        <v>45161.55212962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10289,7 +10249,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10326,14 +10286,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53571-2025</t>
+          <t>A 18191-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45960.41381944445</v>
+        <v>45761.67469907407</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10345,8 +10305,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>14.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10383,14 +10348,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 47402-2024</t>
+          <t>A 18210-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45587</v>
+        <v>45761.69201388889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10402,8 +10367,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10440,14 +10410,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 15590-2025</t>
+          <t>A 56467-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45747.8646875</v>
+        <v>45625.45383101852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10460,7 +10430,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10497,14 +10467,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 26855-2021</t>
+          <t>A 48639-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44349.5987962963</v>
+        <v>45202</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10517,7 +10487,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10554,14 +10524,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 4465-2024</t>
+          <t>A 35897-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45327.54628472222</v>
+        <v>45862.48601851852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10573,8 +10543,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10611,14 +10586,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49295-2025</t>
+          <t>A 39979-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45938.53597222222</v>
+        <v>45893.72087962963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10631,7 +10606,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10668,14 +10643,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4453-2024</t>
+          <t>A 35896-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45327.51895833333</v>
+        <v>45862.48434027778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10689,11 +10664,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10730,14 +10705,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 50162-2023</t>
+          <t>A 39750-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45215</v>
+        <v>45891.404375</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10749,13 +10724,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10792,14 +10762,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 39389-2024</t>
+          <t>A 39884-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45551.50974537037</v>
+        <v>45891.62295138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10812,7 +10782,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10849,14 +10819,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17552-2023</t>
+          <t>A 50162-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45036.50671296296</v>
+        <v>45215</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10868,8 +10838,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10906,14 +10881,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40912-2023</t>
+          <t>A 59320-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45173.41140046297</v>
+        <v>45637.7069212963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10925,8 +10900,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10963,14 +10943,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52539-2025</t>
+          <t>A 33832-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45954.54627314815</v>
+        <v>45520.62033564815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10982,13 +10962,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11025,14 +11000,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 12127-2025</t>
+          <t>A 35904-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45729.38393518519</v>
+        <v>45862.49270833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11042,6 +11017,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>LESSEBO</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -11082,14 +11062,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18191-2025</t>
+          <t>A 3714-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45761.67469907407</v>
+        <v>44586.61754629629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11103,11 +11083,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>14.7</v>
+        <v>4.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11144,14 +11124,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18210-2025</t>
+          <t>A 70349-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45761.69201388889</v>
+        <v>44536.47980324074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11163,13 +11143,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11206,14 +11181,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 18968-2024</t>
+          <t>A 20054-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45427.55083333333</v>
+        <v>45772.40309027778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11226,7 +11201,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11263,14 +11238,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53341-2021</t>
+          <t>A 18209-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44468</v>
+        <v>45761.69005787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11282,8 +11257,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11320,14 +11300,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59321-2024</t>
+          <t>A 26855-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45637.70924768518</v>
+        <v>44349.5987962963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11339,13 +11319,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11382,14 +11357,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 17203-2025</t>
+          <t>A 43809-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45756.42202546296</v>
+        <v>45912.58181712963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11402,7 +11377,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11439,14 +11414,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 48639-2023</t>
+          <t>A 61598-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45202</v>
+        <v>44916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11458,8 +11433,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11496,14 +11476,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33832-2024</t>
+          <t>A 30914-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45520.62033564815</v>
+        <v>44767</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11516,7 +11496,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11553,14 +11533,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 37933-2021</t>
+          <t>A 73140-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44403.67659722222</v>
+        <v>44550.48967592593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11573,7 +11553,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11610,14 +11590,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 20431-2025</t>
+          <t>A 44904-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45775.47883101852</v>
+        <v>45918.51385416667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11627,11 +11607,6 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -11672,14 +11647,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6338-2025</t>
+          <t>A 27574-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45699.28684027777</v>
+        <v>45097</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11692,7 +11667,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11729,14 +11704,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 28477-2024</t>
+          <t>A 53341-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45477.73711805556</v>
+        <v>44468</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11748,13 +11723,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11791,14 +11761,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4236-2026</t>
+          <t>A 44899-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46044.90097222223</v>
+        <v>45918.50550925926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11811,7 +11781,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11848,14 +11818,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 61638-2025</t>
+          <t>A 4839-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46002.42930555555</v>
+        <v>44955</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11868,7 +11838,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11905,14 +11875,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61641-2025</t>
+          <t>A 3605-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46002.43211805556</v>
+        <v>45320.86557870371</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11922,11 +11892,6 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>LESSEBO</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -11967,14 +11932,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4229-2026</t>
+          <t>A 21546-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46044.89229166666</v>
+        <v>45063.56233796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11987,7 +11952,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>9.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12024,14 +11989,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 27574-2023</t>
+          <t>A 46631-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45097</v>
+        <v>45926.45581018519</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12044,7 +12009,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12081,14 +12046,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 4839-2023</t>
+          <t>A 47693-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44955</v>
+        <v>45931.59833333334</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12138,14 +12103,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 14549-2025</t>
+          <t>A 47696-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45741.70359953704</v>
+        <v>45931.59982638889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12158,7 +12123,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12195,14 +12160,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 30600-2024</t>
+          <t>A 48429-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45493.63009259259</v>
+        <v>45934.87306712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12215,7 +12180,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12252,14 +12217,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62728-2025</t>
+          <t>A 48433-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46008.55391203704</v>
+        <v>45934.89519675926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12271,13 +12236,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12314,14 +12274,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 24171-2024</t>
+          <t>A 17729-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45456.73114583334</v>
+        <v>45758</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12333,8 +12293,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12371,14 +12336,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 64865-2023</t>
+          <t>A 20485-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45282.50063657408</v>
+        <v>45775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12396,7 +12361,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12433,14 +12398,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17609-2025</t>
+          <t>A 20443-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45757.77603009259</v>
+        <v>45775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12458,7 +12423,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12495,14 +12460,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 41900-2022</t>
+          <t>A 15180-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44830.34797453704</v>
+        <v>45016</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12514,13 +12479,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12557,14 +12517,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 38227-2023</t>
+          <t>A 52802-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45161.55212962963</v>
+        <v>45610.56901620371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12577,7 +12537,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12614,14 +12574,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 35332-2022</t>
+          <t>A 49298-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44798</v>
+        <v>45938.54045138889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12634,7 +12594,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12671,14 +12631,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31425-2021</t>
+          <t>A 859-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44369.35200231482</v>
+        <v>45665.61208333333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12690,8 +12650,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12728,14 +12693,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 20825-2023</t>
+          <t>A 52031-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45058</v>
+        <v>45223.62657407407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12748,7 +12713,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12785,14 +12750,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13751-2025</t>
+          <t>A 51487-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45737.41412037037</v>
+        <v>45950.62329861111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12805,7 +12770,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12842,14 +12807,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 27405-2024</t>
+          <t>A 30966-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45474.35745370371</v>
+        <v>45113.48390046296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12862,7 +12827,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12899,14 +12864,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 59173-2023</t>
+          <t>A 68507-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45253.43135416666</v>
+        <v>44529.46170138889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12919,7 +12884,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12956,14 +12921,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3714-2022</t>
+          <t>A 52028-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44586.61754629629</v>
+        <v>45952.60530092593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12975,13 +12940,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13018,14 +12978,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8438-2026</t>
+          <t>A 38712-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46065.39539351852</v>
+        <v>44814.81546296296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13037,13 +12997,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13080,14 +13035,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 18206-2025</t>
+          <t>A 52031-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45761.68552083334</v>
+        <v>45952.60922453704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13099,13 +13054,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13142,14 +13092,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 18207-2025</t>
+          <t>A 20435-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45761.68600694444</v>
+        <v>45775.48229166667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13167,7 +13117,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13204,14 +13154,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 18211-2025</t>
+          <t>A 20441-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45761.69388888889</v>
+        <v>45775.48774305556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13229,7 +13179,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13266,14 +13216,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 642-2024</t>
+          <t>A 52537-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45299.74146990741</v>
+        <v>45954.54431712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13291,7 +13241,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13328,14 +13278,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 18729-2021</t>
+          <t>A 52531-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44307.41773148148</v>
+        <v>45954.53825231481</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13347,8 +13297,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13385,14 +13340,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1169-2025</t>
+          <t>A 52532-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45667.28696759259</v>
+        <v>45954.53956018519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13404,8 +13359,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13442,14 +13402,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 33076-2023</t>
+          <t>A 43206-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45126</v>
+        <v>45567.70056712963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13462,7 +13422,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13499,14 +13459,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 45671-2024</t>
+          <t>A 52546-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45579.50758101852</v>
+        <v>45954.55186342593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13524,7 +13484,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13561,14 +13521,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 1022-2026</t>
+          <t>A 15203-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46030.60766203704</v>
+        <v>45017</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13580,8 +13540,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13618,14 +13583,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 47386-2024</t>
+          <t>A 15204-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45587</v>
+        <v>45017</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13637,8 +13602,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13675,14 +13645,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 63927-2021</t>
+          <t>A 18197-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44509.69895833333</v>
+        <v>45761.67996527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13670,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.6</v>
+        <v>14.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13737,14 +13707,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 20056-2025</t>
+          <t>A 52534-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45772.40685185185</v>
+        <v>45954.54306712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13756,8 +13726,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13794,14 +13769,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 1016-2026</t>
+          <t>A 53120-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46030.60380787037</v>
+        <v>45958.44938657407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13789,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13851,14 +13826,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 39603-2022</t>
+          <t>A 53122-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44818.62685185186</v>
+        <v>45958</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13908,14 +13883,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11843-2024</t>
+          <t>A 53522-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45376.38177083333</v>
+        <v>45960.35961805555</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13927,13 +13902,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13970,14 +13940,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14940-2024</t>
+          <t>A 53571-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45398.68222222223</v>
+        <v>45960.41381944445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13990,7 +13960,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14027,14 +13997,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4413-2022</t>
+          <t>A 8690-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44589</v>
+        <v>44978</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14047,7 +14017,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14084,14 +14054,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61598-2022</t>
+          <t>A 61995-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44916</v>
+        <v>44918.41686342593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14109,7 +14079,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14146,14 +14116,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 16886-2025</t>
+          <t>A 4453-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45755.30775462963</v>
+        <v>45327.51895833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14165,8 +14135,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14203,14 +14178,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3605-2024</t>
+          <t>A 49295-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45320.86557870371</v>
+        <v>45938.53597222222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14223,7 +14198,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14260,14 +14235,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 34386-2023</t>
+          <t>A 49121-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45139</v>
+        <v>45594.66606481482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14317,14 +14292,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 21546-2023</t>
+          <t>A 56475-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45063.56233796296</v>
+        <v>45625.46210648148</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14337,7 +14312,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14374,14 +14349,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 15864-2022</t>
+          <t>A 14551-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44664.45688657407</v>
+        <v>45741.70509259259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14394,7 +14369,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14431,14 +14406,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20480-2025</t>
+          <t>A 20681-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45775.55607638889</v>
+        <v>45776.44914351852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14431,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14493,14 +14468,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 38712-2022</t>
+          <t>A 51990-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44814.81546296296</v>
+        <v>45607.69770833333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14488,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14550,14 +14525,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 22432-2023</t>
+          <t>A 41598-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45070</v>
+        <v>45560.5765625</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14569,13 +14544,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14612,14 +14582,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 56529-2022</t>
+          <t>A 20852-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44893.46648148148</v>
+        <v>45777.3215625</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14631,8 +14601,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14669,14 +14644,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 43114-2024</t>
+          <t>A 20855-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45567</v>
+        <v>45777.32519675926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14694,7 +14669,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14731,14 +14706,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 17403-2025</t>
+          <t>A 20856-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45757.35355324074</v>
+        <v>45777.32569444444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14750,8 +14725,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14788,14 +14768,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 21745-2022</t>
+          <t>A 20859-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44708</v>
+        <v>45777.32798611111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14807,8 +14787,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>9.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14845,14 +14830,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 37399-2024</t>
+          <t>A 20877-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45540.60707175926</v>
+        <v>45777.35261574074</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14864,8 +14849,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14902,14 +14892,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 27080-2022</t>
+          <t>A 20860-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44741.41038194444</v>
+        <v>45777.32888888889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14921,8 +14911,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14959,14 +14954,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 43206-2024</t>
+          <t>A 61439-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45567.70056712963</v>
+        <v>45646.46565972222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14979,7 +14974,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15016,14 +15011,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 39436-2022</t>
+          <t>A 52539-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44818.32547453704</v>
+        <v>45954.54627314815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15035,8 +15030,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15073,14 +15073,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 20223-2025</t>
+          <t>A 21917-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45772.65694444445</v>
+        <v>45784.5059837963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15130,14 +15130,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 20435-2025</t>
+          <t>A 21951-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45775.48229166667</v>
+        <v>45784.59821759259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15151,11 +15151,11 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15192,14 +15192,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20441-2025</t>
+          <t>A 37964-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45775.48774305556</v>
+        <v>45544.54753472222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15211,13 +15211,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15254,14 +15249,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 18205-2025</t>
+          <t>A 4742-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45761.68496527777</v>
+        <v>45688.45554398148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15275,7 +15270,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -15316,14 +15311,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 18197-2025</t>
+          <t>A 29566-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45761.67996527778</v>
+        <v>45484.54526620371</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15335,13 +15330,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>14.7</v>
+        <v>21.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15378,14 +15368,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13036-2022</t>
+          <t>A 61638-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44643.59888888889</v>
+        <v>46002.42930555555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15398,7 +15388,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15435,14 +15425,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 52031-2023</t>
+          <t>A 61641-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45223.62657407407</v>
+        <v>46002.43211805556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15454,8 +15444,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15492,14 +15487,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 70349-2021</t>
+          <t>A 53487-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44536.47980324074</v>
+        <v>45611</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15512,7 +15507,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15549,14 +15544,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 70350-2021</t>
+          <t>A 10414-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44536.48008101852</v>
+        <v>45720.63288194445</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15569,7 +15564,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15606,14 +15601,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 52802-2024</t>
+          <t>A 4229-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45610.56901620371</v>
+        <v>46044.89229166666</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15626,7 +15621,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15663,14 +15658,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2755-2025</t>
+          <t>A 4236-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45677.47734953704</v>
+        <v>46044.90097222223</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15683,7 +15678,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15720,14 +15715,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 61575-2022</t>
+          <t>A 25761-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44916.62188657407</v>
+        <v>45804.33686342592</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15741,11 +15736,11 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15782,14 +15777,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 61588-2022</t>
+          <t>A 32667-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44916.63834490741</v>
+        <v>44375.45909722222</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15801,13 +15796,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15844,14 +15834,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 17350-2023</t>
+          <t>A 8174-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45035.58962962963</v>
+        <v>45708</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15864,7 +15854,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15901,14 +15891,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 20852-2025</t>
+          <t>A 8173-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45777.3215625</v>
+        <v>45708</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15920,13 +15910,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15963,14 +15948,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 20681-2025</t>
+          <t>A 62728-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45776.44914351852</v>
+        <v>46008.55391203704</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15988,7 +15973,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16025,14 +16010,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20855-2025</t>
+          <t>A 20857-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45777.32519675926</v>
+        <v>45777.32631944444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16050,7 +16035,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16087,14 +16072,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20856-2025</t>
+          <t>A 20478-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45777.32569444444</v>
+        <v>45775.55267361111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16112,7 +16097,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16149,14 +16134,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 20859-2025</t>
+          <t>A 28794-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45777.32798611111</v>
+        <v>45820.47526620371</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16168,13 +16153,8 @@
           <t>LESSEBO</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16211,14 +16191,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20877-2025</t>
+          <t>A 20851-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45777.35261574074</v>
+        <v>45777.32086805555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,14 +16253,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 51990-2024</t>
+          <t>A 29659-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45607.69770833333</v>
+        <v>45825.48642361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16293,7 +16273,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16330,14 +16310,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 20860-2025</t>
+          <t>A 20854-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45777.32888888889</v>
+        <v>45777.32327546296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16355,7 +16335,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16392,14 +16372,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 41598-2024</t>
+          <t>A 20853-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45560.5765625</v>
+        <v>45777.32241898148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16411,8 +16391,13 @@
           <t>LESSEBO</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16449,14 +16434,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 61439-2024</t>
+          <t>A 30771-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45646.46565972222</v>
+        <v>45831.61278935185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16469,7 +16454,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16506,14 +16491,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 21951-2025</t>
+          <t>A 8438-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45784.59821759259</v>
+        <v>46065.39539351852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16527,11 +16512,11 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16568,14 +16553,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 21917-2025</t>
+          <t>A 30527-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45784.5059837963</v>
+        <v>45831.35900462963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16588,7 +16573,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16625,14 +16610,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 37964-2024</t>
+          <t>A 30522-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45544.54753472222</v>
+        <v>45831.34858796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16645,7 +16630,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16682,14 +16667,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 4742-2025</t>
+          <t>A 32712-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45688.45554398148</v>
+        <v>45839.36814814815</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16703,11 +16688,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16744,14 +16729,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 29566-2024</t>
+          <t>A 1022-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45484.54526620371</v>
+        <v>46030.60766203704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16764,7 +16749,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>21.3</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16801,14 +16786,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 10414-2025</t>
+          <t>A 1016-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45720.63288194445</v>
+        <v>46030.60380787037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16821,7 +16806,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16858,14 +16843,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 53487-2024</t>
+          <t>A 10185-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45611</v>
+        <v>46076.4424074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16878,7 +16863,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16915,14 +16900,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 32667-2021</t>
+          <t>A 10189-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44375.45909722222</v>
+        <v>46076.44975694444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16972,14 +16957,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 8173-2025</t>
+          <t>A 10286-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45708</v>
+        <v>46076.60180555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -1